--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="4020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IESS+others" sheetId="8" r:id="rId2"/>
     <sheet name="MoP - Thermal PLFs" sheetId="9" r:id="rId3"/>
     <sheet name="Table 6.7.A" sheetId="3" r:id="rId4"/>
-    <sheet name="Calculations" sheetId="10" r:id="rId5"/>
-    <sheet name="BECF-pre-ret" sheetId="4" r:id="rId6"/>
-    <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId7"/>
-    <sheet name="BECF-new" sheetId="6" r:id="rId8"/>
+    <sheet name="Pumped Hydro" sheetId="11" r:id="rId5"/>
+    <sheet name="Calculations" sheetId="10" r:id="rId6"/>
+    <sheet name="BECF-pre-ret" sheetId="4" r:id="rId7"/>
+    <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId8"/>
+    <sheet name="BECF-new" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -258,30 +261,6 @@
           </rPr>
           <t xml:space="preserve">
 CERC tariff order - pp 29 -- biomass based power (rankine cycle) - http://www.cercind.gov.in/2019/orders/1-SM-2019Suo-Motu.pdf</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Deepthi Swamy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-REN21 - Asia average, Table 3</t>
         </r>
       </text>
     </comment>
@@ -574,30 +553,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Deepthi Swamy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-REN21 - Asia average</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -699,7 +654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
   <si>
     <t>Source:</t>
   </si>
@@ -1138,15 +1093,100 @@
   <si>
     <t>For municipal solid waste, we assume the same as biomass.</t>
   </si>
+  <si>
+    <t>Capacity Factor for Pumped Hydro</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/others/planning/resd/mom_pump_storage_plants.pdf</t>
+  </si>
+  <si>
+    <t>Page 145 of pdf</t>
+  </si>
+  <si>
+    <t>Kadamparai Pumped Hydro Plant Monthly Capacity Factor</t>
+  </si>
+  <si>
+    <t>Page 145</t>
+  </si>
+  <si>
+    <t>CUF (%)</t>
+  </si>
+  <si>
+    <t>Yearly CUF</t>
+  </si>
+  <si>
+    <t>4-yr avg</t>
+  </si>
+  <si>
+    <t>Operational CUF for Single Plant (Kadamparai)</t>
+  </si>
+  <si>
+    <t>Design CUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESIGN
+ENERGY
+</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/others/hydro/hpi/hydro_performance_data-2017-18.pdf</t>
+  </si>
+  <si>
+    <t>Page 43, Annex-I(c)(12 of 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For pumped hydro, we assume a normative CUF from CEA's Design Energy specification </t>
+  </si>
+  <si>
+    <t>as operational data is available only for one plant.</t>
+  </si>
+  <si>
+    <t>Minutes of the meeting regarding operationalization of existing pump storage plants held on 28th June, 2017</t>
+  </si>
+  <si>
+    <t>Sample Pumped Hydro Plant CUF</t>
+  </si>
+  <si>
+    <t>Normative/Design CUF</t>
+  </si>
+  <si>
+    <t>Hydro Generation Performance Data 2017-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design CUF </t>
+  </si>
+  <si>
+    <t>Total (PSS)</t>
+  </si>
+  <si>
+    <t>STATE-WISE/STATION-WISE INSTALLED CAPACITY OF H.E. STATIONS IN THE COUNTRY
+ (ABOVE 25 MW CAPACITY)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1464,7 +1504,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1519,22 +1559,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3281,6 +3324,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>164870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>410907</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92CFC893-8BCB-4CCF-8AF0-5EF66D4C6B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="164870"/>
+          <a:ext cx="5592507" cy="2988618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC94905-321A-47AF-AB44-BAC10F683CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="5438775"/>
+          <a:ext cx="6630325" cy="3286584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -3625,9 +3761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3735,10 +3873,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
@@ -3746,7 +3884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -3754,7 +3892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <v>2017</v>
       </c>
@@ -3762,7 +3900,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -3770,7 +3908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -3778,7 +3916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -3786,139 +3924,217 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <v>2015</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D29" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="D37" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="D39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="D40" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +4153,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C11" sqref="C11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4255,7 +4471,7 @@
         <v>0.3</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:I10" si="0">C10</f>
+        <f t="shared" ref="D10:I11" si="0">C10</f>
         <v>0.3</v>
       </c>
       <c r="E10">
@@ -4283,30 +4499,37 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <f>Calculations!M10/100</f>
-        <v>0.83</v>
-      </c>
-      <c r="C11">
-        <v>0.83</v>
-      </c>
-      <c r="D11">
-        <v>0.83</v>
-      </c>
-      <c r="E11">
-        <v>0.83</v>
-      </c>
-      <c r="F11">
-        <v>0.83</v>
-      </c>
-      <c r="G11">
-        <v>0.83</v>
-      </c>
-      <c r="H11">
-        <v>0.83</v>
-      </c>
-      <c r="I11">
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
+      </c>
+      <c r="C11" s="7">
+        <f>'Pumped Hydro'!B23/100</f>
+        <v>0.22689835106537268</v>
+      </c>
+      <c r="D11" s="7">
+        <f>C11</f>
+        <v>0.22689835106537268</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22689835106537268</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22689835106537268</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22689835106537268</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22689835106537268</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22689835106537268</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -4434,7 +4657,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4546,81 +4769,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="34" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="34" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="34" t="s">
+      <c r="M3" s="37"/>
+      <c r="N3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="34" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="36"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
@@ -4676,25 +4899,25 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
@@ -5227,25 +5450,25 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
@@ -5884,25 +6107,25 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
@@ -6541,25 +6764,25 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
@@ -6986,33 +7209,28 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A42:Q42"/>
     <mergeCell ref="A51:Q51"/>
     <mergeCell ref="L2:Q2"/>
@@ -7025,17 +7243,356 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="3" width="15.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>2013</v>
+      </c>
+      <c r="D2">
+        <v>2014</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+      <c r="F2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <v>6.5</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="32">
+        <f>AVERAGE(B3:B14)</f>
+        <v>18.958333333333332</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D3:D14)</f>
+        <v>32.5</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" si="0"/>
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="32">
+        <f>AVERAGE(B15:F15)</f>
+        <v>23.677083333333332</v>
+      </c>
+      <c r="C16" s="32"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="K19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>4785.6000000000004</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21">
+        <v>9512</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f>B21*10^3</f>
+        <v>4785600</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22">
+        <f>D21*10^6</f>
+        <v>9512000000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="33">
+        <f>(D22*100)/(B22*8760)</f>
+        <v>22.689835106537267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M10" sqref="M10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7068,11 +7625,11 @@
       <c r="O1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -7472,29 +8029,29 @@
       <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="34">
         <f>'IESS+others'!C11*100</f>
-        <v>83</v>
+        <v>22.689835106537267</v>
       </c>
       <c r="N10">
         <f>'IESS+others'!F11*100</f>
-        <v>83</v>
+        <v>22.689835106537267</v>
       </c>
       <c r="O10">
         <f>'IESS+others'!I11*100</f>
-        <v>83</v>
+        <v>22.689835106537267</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" si="2"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.45">
@@ -9069,143 +9626,143 @@
       </c>
       <c r="M25">
         <f>Q10</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="N25">
         <f>M25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="O25">
         <f t="shared" ref="O25:AU26" si="22">N25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="P25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Q25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="R25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="S25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="T25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="U25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="V25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="W25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="X25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Y25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Z25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AA25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AB25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AC25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AD25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AE25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AF25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AG25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AH25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AI25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AK25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AL25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AM25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AN25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AO25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AP25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AR25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AS25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AT25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AU25">
         <f t="shared" si="22"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.45">
@@ -9918,7 +10475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -9926,7 +10483,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B10" sqref="B10:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11211,143 +11768,143 @@
       </c>
       <c r="B10" s="7">
         <f t="shared" si="5"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="8"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="8"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="E10" s="7">
         <f>'IESS+others'!B11</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="S10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="T10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="V10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="W10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="X10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AD10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AE10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AG10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AH10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AI10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AJ10" s="7">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.45">
@@ -12370,7 +12927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -14806,7 +15363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -14814,7 +15371,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6:AJ6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16115,143 +16672,143 @@
       </c>
       <c r="B10" s="7">
         <f>Calculations!M25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="C10" s="7">
         <f>Calculations!N25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="D10" s="7">
         <f>Calculations!O25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="E10" s="7">
         <f>Calculations!P25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="F10" s="7">
         <f>Calculations!Q25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="G10" s="7">
         <f>Calculations!R25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="H10" s="7">
         <f>Calculations!S25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="I10" s="7">
         <f>Calculations!T25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="J10" s="7">
         <f>Calculations!U25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="K10" s="7">
         <f>Calculations!V25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="L10" s="7">
         <f>Calculations!W25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="M10" s="7">
         <f>Calculations!X25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="N10" s="7">
         <f>Calculations!Y25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="O10" s="7">
         <f>Calculations!Z25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="P10" s="7">
         <f>Calculations!AA25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Q10" s="7">
         <f>Calculations!AB25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="R10" s="7">
         <f>Calculations!AC25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="S10" s="7">
         <f>Calculations!AD25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="T10" s="7">
         <f>Calculations!AE25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="U10" s="7">
         <f>Calculations!AF25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="V10" s="7">
         <f>Calculations!AG25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="W10" s="7">
         <f>Calculations!AH25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="X10" s="7">
         <f>Calculations!AI25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Y10" s="7">
         <f>Calculations!AJ25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="Z10" s="7">
         <f>Calculations!AK25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AA10" s="7">
         <f>Calculations!AL25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AB10" s="7">
         <f>Calculations!AM25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AC10" s="7">
         <f>Calculations!AN25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AD10" s="7">
         <f>Calculations!AO25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AE10" s="7">
         <f>Calculations!AP25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AF10" s="7">
         <f>Calculations!AQ25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AG10" s="7">
         <f>Calculations!AR25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AH10" s="7">
         <f>Calculations!AS25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AI10" s="7">
         <f>Calculations!AT25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AJ10" s="7">
         <f>Calculations!AU25</f>
-        <v>0.83</v>
+        <v>0.22689835106537268</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>

--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\BECF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId8"/>
     <sheet name="BECF-new" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1562,22 +1562,22 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2278,43 +2278,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19384615384615422</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19769230769230806</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20153846153846189</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20538461538461572</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20923076923076955</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21307692307692339</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21692307692307722</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22076923076923105</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22461538461538488</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22846153846153872</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23230769230769255</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23615384615384638</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.24</c:v>
@@ -2642,6 +2642,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4769,27 +4770,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="38"/>
@@ -4798,52 +4799,52 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="37"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="36" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="36" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="37"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
@@ -4899,25 +4900,25 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
@@ -5450,25 +5451,25 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
@@ -6107,25 +6108,25 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
@@ -6764,25 +6765,25 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
@@ -7209,28 +7210,33 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A42:Q42"/>
     <mergeCell ref="A51:Q51"/>
     <mergeCell ref="L2:Q2"/>
@@ -7243,11 +7249,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7591,8 +7592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:O10"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7903,7 +7904,7 @@
         <v>24</v>
       </c>
       <c r="Q7" s="23">
-        <f t="shared" si="2"/>
+        <f>M7/100</f>
         <v>0.19</v>
       </c>
       <c r="R7" s="24">
@@ -9154,68 +9155,68 @@
         <v>21</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
-        <v>0.19</v>
+        <f>$R$7</f>
+        <v>0.24</v>
       </c>
       <c r="N22">
-        <f>P22</f>
-        <v>0.19</v>
+        <f t="shared" ref="N22:AB22" si="17">$R$7</f>
+        <v>0.24</v>
       </c>
       <c r="O22">
-        <f>P22</f>
-        <v>0.19</v>
+        <f t="shared" si="17"/>
+        <v>0.24</v>
       </c>
       <c r="P22">
-        <f>Q7</f>
-        <v>0.19</v>
+        <f t="shared" si="17"/>
+        <v>0.24</v>
       </c>
       <c r="Q22">
-        <f>FORECAST(Q16,$Q$7:$R$7,$Q$2:$R$2)</f>
-        <v>0.19384615384615422</v>
+        <f t="shared" si="17"/>
+        <v>0.24</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:AB22" si="17">FORECAST(R16,$Q$7:$R$7,$Q$2:$R$2)</f>
-        <v>0.19769230769230806</v>
+        <f t="shared" si="17"/>
+        <v>0.24</v>
       </c>
       <c r="S22">
         <f t="shared" si="17"/>
-        <v>0.20153846153846189</v>
+        <v>0.24</v>
       </c>
       <c r="T22">
         <f t="shared" si="17"/>
-        <v>0.20538461538461572</v>
+        <v>0.24</v>
       </c>
       <c r="U22">
         <f t="shared" si="17"/>
-        <v>0.20923076923076955</v>
+        <v>0.24</v>
       </c>
       <c r="V22">
         <f t="shared" si="17"/>
-        <v>0.21307692307692339</v>
+        <v>0.24</v>
       </c>
       <c r="W22">
         <f t="shared" si="17"/>
-        <v>0.21692307692307722</v>
+        <v>0.24</v>
       </c>
       <c r="X22">
         <f t="shared" si="17"/>
-        <v>0.22076923076923105</v>
+        <v>0.24</v>
       </c>
       <c r="Y22">
         <f t="shared" si="17"/>
-        <v>0.22461538461538488</v>
+        <v>0.24</v>
       </c>
       <c r="Z22">
         <f t="shared" si="17"/>
-        <v>0.22846153846153872</v>
+        <v>0.24</v>
       </c>
       <c r="AA22">
         <f t="shared" si="17"/>
-        <v>0.23230769230769255</v>
+        <v>0.24</v>
       </c>
       <c r="AB22">
         <f t="shared" si="17"/>
-        <v>0.23615384615384638</v>
+        <v>0.24</v>
       </c>
       <c r="AC22">
         <f>R7</f>
@@ -15371,7 +15372,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16231,67 +16232,67 @@
       </c>
       <c r="B7" s="7">
         <f>Calculations!M22</f>
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C7" s="7">
         <f>Calculations!N22</f>
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="D7" s="7">
         <f>Calculations!O22</f>
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="E7" s="7">
         <f>Calculations!P22</f>
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="F7" s="7">
         <f>Calculations!Q22</f>
-        <v>0.19384615384615422</v>
+        <v>0.24</v>
       </c>
       <c r="G7" s="7">
         <f>Calculations!R22</f>
-        <v>0.19769230769230806</v>
+        <v>0.24</v>
       </c>
       <c r="H7" s="7">
         <f>Calculations!S22</f>
-        <v>0.20153846153846189</v>
+        <v>0.24</v>
       </c>
       <c r="I7" s="7">
         <f>Calculations!T22</f>
-        <v>0.20538461538461572</v>
+        <v>0.24</v>
       </c>
       <c r="J7" s="7">
         <f>Calculations!U22</f>
-        <v>0.20923076923076955</v>
+        <v>0.24</v>
       </c>
       <c r="K7" s="7">
         <f>Calculations!V22</f>
-        <v>0.21307692307692339</v>
+        <v>0.24</v>
       </c>
       <c r="L7" s="7">
         <f>Calculations!W22</f>
-        <v>0.21692307692307722</v>
+        <v>0.24</v>
       </c>
       <c r="M7" s="7">
         <f>Calculations!X22</f>
-        <v>0.22076923076923105</v>
+        <v>0.24</v>
       </c>
       <c r="N7" s="7">
         <f>Calculations!Y22</f>
-        <v>0.22461538461538488</v>
+        <v>0.24</v>
       </c>
       <c r="O7" s="7">
         <f>Calculations!Z22</f>
-        <v>0.22846153846153872</v>
+        <v>0.24</v>
       </c>
       <c r="P7" s="7">
         <f>Calculations!AA22</f>
-        <v>0.23230769230769255</v>
+        <v>0.24</v>
       </c>
       <c r="Q7" s="7">
         <f>Calculations!AB22</f>
-        <v>0.23615384615384638</v>
+        <v>0.24</v>
       </c>
       <c r="R7" s="7">
         <f>Calculations!AC22</f>

--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -22,7 +22,7 @@
     <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId8"/>
     <sheet name="BECF-new" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -499,7 +499,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SECI normative CUFs for sample tender - http://seci.co.in/web-data/docs/tenders/RfS_500%20MW%20Tamilnadu.pdf -- Sec 8.4a, pp 28</t>
+NREL/POSOCO table 6</t>
         </r>
       </text>
     </comment>
@@ -1562,22 +1562,22 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2278,46 +2278,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.24</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.21230769230769209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24</c:v>
+                  <c:v>0.21461538461538421</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24</c:v>
+                  <c:v>0.21692307692307722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24</c:v>
+                  <c:v>0.21923076923076934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24</c:v>
+                  <c:v>0.22153846153846146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24</c:v>
+                  <c:v>0.22384615384615358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24</c:v>
+                  <c:v>0.22615384615384571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24</c:v>
+                  <c:v>0.22846153846153872</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24</c:v>
+                  <c:v>0.23076923076923084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24</c:v>
+                  <c:v>0.23307692307692296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24</c:v>
+                  <c:v>0.23538461538461508</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24</c:v>
+                  <c:v>0.2376923076923072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24</c:v>
+                  <c:v>0.24000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.24</c:v>
@@ -3765,7 +3765,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4154,7 +4154,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:I11"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4395,7 +4395,6 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <f>Calculations!$M$7/100</f>
         <v>0.19</v>
       </c>
       <c r="C8">
@@ -4770,27 +4769,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="38"/>
@@ -4799,52 +4798,52 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="37" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="37" t="s">
+      <c r="M3" s="37"/>
+      <c r="N3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="37" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="39"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
@@ -4900,25 +4899,25 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
@@ -5451,25 +5450,25 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
@@ -6108,25 +6107,25 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
@@ -6765,25 +6764,25 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
@@ -7210,33 +7209,28 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A42:Q42"/>
     <mergeCell ref="A51:Q51"/>
     <mergeCell ref="L2:Q2"/>
@@ -7249,6 +7243,11 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7592,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:AB22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22:AU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7712,7 +7711,7 @@
         <v>57.43333333333328</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C34" si="1">B4/100</f>
+        <f>B4/100</f>
         <v>0.57433333333333281</v>
       </c>
       <c r="D4">
@@ -7737,7 +7736,7 @@
         <v>40</v>
       </c>
       <c r="Q4" s="23">
-        <f t="shared" ref="Q4:Q14" si="2">M4/100</f>
+        <f>M4/100</f>
         <v>0.4</v>
       </c>
       <c r="R4" s="24">
@@ -7766,7 +7765,7 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A5">
-        <f t="shared" ref="A5:A34" si="3">A4+1</f>
+        <f>A4+1</f>
         <v>2021</v>
       </c>
       <c r="B5">
@@ -7774,7 +7773,7 @@
         <v>56.966666666666697</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f>B5/100</f>
         <v>0.56966666666666699</v>
       </c>
       <c r="D5">
@@ -7799,7 +7798,7 @@
         <v>46.5</v>
       </c>
       <c r="Q5" s="23">
-        <f t="shared" si="2"/>
+        <f>M5/100</f>
         <v>0.375</v>
       </c>
       <c r="R5" s="24">
@@ -7822,7 +7821,7 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A6">
-        <f t="shared" si="3"/>
+        <f>A5+1</f>
         <v>2022</v>
       </c>
       <c r="B6">
@@ -7830,7 +7829,7 @@
         <v>56.5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f>B6/100</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="D6">
@@ -7853,7 +7852,7 @@
         <v>44</v>
       </c>
       <c r="Q6" s="23">
-        <f t="shared" si="2"/>
+        <f>M6/100</f>
         <v>0.35499999999999998</v>
       </c>
       <c r="R6" s="24"/>
@@ -7872,7 +7871,7 @@
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A7">
-        <f t="shared" si="3"/>
+        <f>A6+1</f>
         <v>2023</v>
       </c>
       <c r="B7">
@@ -7880,7 +7879,7 @@
         <v>57.299999999999955</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f>B7/100</f>
         <v>0.57299999999999951</v>
       </c>
       <c r="D7">
@@ -7893,7 +7892,7 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <f>'IESS+others'!F8*100</f>
@@ -7905,7 +7904,7 @@
       </c>
       <c r="Q7" s="23">
         <f>M7/100</f>
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="R7" s="24">
         <f t="shared" si="0"/>
@@ -7918,7 +7917,7 @@
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f>A7+1</f>
         <v>2024</v>
       </c>
       <c r="B8">
@@ -7926,7 +7925,7 @@
         <v>58.099999999999909</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f>B8/100</f>
         <v>0.58099999999999907</v>
       </c>
       <c r="D8">
@@ -7950,7 +7949,7 @@
         <v>46</v>
       </c>
       <c r="Q8" s="23">
-        <f t="shared" si="2"/>
+        <f>M8/100</f>
         <v>0.28749999999999998</v>
       </c>
       <c r="R8" s="24">
@@ -7964,7 +7963,7 @@
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f>A8+1</f>
         <v>2025</v>
       </c>
       <c r="B9">
@@ -7972,7 +7971,7 @@
         <v>58.899999999999864</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f>B9/100</f>
         <v>0.58899999999999864</v>
       </c>
       <c r="D9">
@@ -7996,7 +7995,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="23">
-        <f t="shared" si="2"/>
+        <f>M9/100</f>
         <v>0.3</v>
       </c>
       <c r="R9" s="24">
@@ -8010,7 +8009,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f>A9+1</f>
         <v>2026</v>
       </c>
       <c r="B10">
@@ -8018,7 +8017,7 @@
         <v>59.700000000000045</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f>B10/100</f>
         <v>0.59700000000000042</v>
       </c>
       <c r="D10">
@@ -8043,7 +8042,7 @@
         <v>22.689835106537267</v>
       </c>
       <c r="Q10" s="23">
-        <f t="shared" si="2"/>
+        <f>M10/100</f>
         <v>0.22689835106537268</v>
       </c>
       <c r="R10" s="24">
@@ -8057,7 +8056,7 @@
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f>A10+1</f>
         <v>2027</v>
       </c>
       <c r="B11">
@@ -8065,7 +8064,7 @@
         <v>60.5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f>B11/100</f>
         <v>0.60499999999999998</v>
       </c>
       <c r="L11" t="s">
@@ -8084,7 +8083,7 @@
         <v>39</v>
       </c>
       <c r="Q11" s="23">
-        <f t="shared" si="2"/>
+        <f>M11/100</f>
         <v>0.36</v>
       </c>
       <c r="R11" s="24">
@@ -8098,7 +8097,7 @@
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f>A11+1</f>
         <v>2028</v>
       </c>
       <c r="B12">
@@ -8106,7 +8105,7 @@
         <v>63.399999999999636</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f>B12/100</f>
         <v>0.63399999999999634</v>
       </c>
       <c r="L12" t="s">
@@ -8125,7 +8124,7 @@
         <v>76</v>
       </c>
       <c r="Q12" s="23">
-        <f t="shared" si="2"/>
+        <f>M12/100</f>
         <v>0.57899999999999996</v>
       </c>
       <c r="R12" s="24">
@@ -8139,7 +8138,7 @@
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f>A12+1</f>
         <v>2029</v>
       </c>
       <c r="B13">
@@ -8147,7 +8146,7 @@
         <v>66.299999999999272</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f>B13/100</f>
         <v>0.66299999999999271</v>
       </c>
       <c r="L13" t="s">
@@ -8166,7 +8165,7 @@
         <v>45</v>
       </c>
       <c r="Q13" s="23">
-        <f t="shared" si="2"/>
+        <f>M13/100</f>
         <v>0.23309999999999997</v>
       </c>
       <c r="R13" s="24">
@@ -8180,7 +8179,7 @@
     </row>
     <row r="14" spans="1:47" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f>A13+1</f>
         <v>2030</v>
       </c>
       <c r="B14">
@@ -8188,7 +8187,7 @@
         <v>69.199999999999818</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f>B14/100</f>
         <v>0.69199999999999817</v>
       </c>
       <c r="L14" t="s">
@@ -8207,7 +8206,7 @@
         <v>76</v>
       </c>
       <c r="Q14" s="26">
-        <f t="shared" si="2"/>
+        <f>M14/100</f>
         <v>0.56950000000000001</v>
       </c>
       <c r="R14" s="27">
@@ -8221,7 +8220,7 @@
     </row>
     <row r="15" spans="1:47" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f>A14+1</f>
         <v>2031</v>
       </c>
       <c r="B15">
@@ -8229,13 +8228,13 @@
         <v>72.099999999999454</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f>B15/100</f>
         <v>0.72099999999999453</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16">
-        <f t="shared" si="3"/>
+        <f>A15+1</f>
         <v>2032</v>
       </c>
       <c r="B16">
@@ -8243,7 +8242,7 @@
         <v>75</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f>B16/100</f>
         <v>0.75</v>
       </c>
       <c r="L16" s="30" t="s">
@@ -8265,129 +8264,129 @@
         <v>2020</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:AU16" si="4">Q16+1</f>
+        <f t="shared" ref="R16:AU16" si="1">Q16+1</f>
         <v>2021</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="T16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2023</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2024</v>
       </c>
       <c r="V16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="W16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="X16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2027</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2028</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2029</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2031</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2032</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2033</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2034</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2035</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2036</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2037</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2038</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2039</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2041</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2042</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2043</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2044</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2045</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2046</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2047</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2049</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2050</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A17">
-        <f t="shared" si="3"/>
+        <f>A16+1</f>
         <v>2033</v>
       </c>
       <c r="B17">
@@ -8395,14 +8394,14 @@
         <v>75.199999999999989</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f>B17/100</f>
         <v>0.75199999999999989</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M24" si="5">P17</f>
+        <f t="shared" ref="M17:M24" si="2">P17</f>
         <v>0.57899999999999996</v>
       </c>
       <c r="N17">
@@ -8512,7 +8511,7 @@
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A18">
-        <f t="shared" si="3"/>
+        <f>A17+1</f>
         <v>2034</v>
       </c>
       <c r="B18">
@@ -8520,14 +8519,14 @@
         <v>75.399999999999977</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f>B18/100</f>
         <v>0.75399999999999978</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.23309999999999997</v>
       </c>
       <c r="N18">
@@ -8547,47 +8546,47 @@
         <v>0.24978461538461261</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18:AB18" si="6">FORECAST(R16,$Q$13:$R$13,$Q$2:$R$2)</f>
+        <f t="shared" ref="R18:AB18" si="3">FORECAST(R16,$Q$13:$R$13,$Q$2:$R$2)</f>
         <v>0.26646923076922491</v>
       </c>
       <c r="S18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.28315384615384431</v>
       </c>
       <c r="T18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.29983846153845661</v>
       </c>
       <c r="U18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.31652307692307602</v>
       </c>
       <c r="V18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.33320769230768832</v>
       </c>
       <c r="W18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.34989230769230062</v>
       </c>
       <c r="X18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.36657692307692002</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.38326153846153233</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.39994615384615173</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.41663076923076403</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.43331538461538344</v>
       </c>
       <c r="AC18">
@@ -8599,55 +8598,55 @@
         <v>0.45</v>
       </c>
       <c r="AE18">
-        <f t="shared" ref="AE18:AU18" si="7">AD18</f>
+        <f t="shared" ref="AE18:AU18" si="4">AD18</f>
         <v>0.45</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AR18">
@@ -8655,21 +8654,21 @@
         <v>0.45</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f>A18+1</f>
         <v>2035</v>
       </c>
       <c r="B19">
@@ -8677,14 +8676,14 @@
         <v>75.599999999999966</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f>B19/100</f>
         <v>0.75599999999999967</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.64599999999999991</v>
       </c>
       <c r="N19">
@@ -8704,47 +8703,47 @@
         <v>0.65784615384615464</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:AB19" si="8">FORECAST(R16,$Q$3:$R$3,$Q$2:$R$2)</f>
+        <f t="shared" ref="R19:AB19" si="5">FORECAST(R16,$Q$3:$R$3,$Q$2:$R$2)</f>
         <v>0.66969230769230847</v>
       </c>
       <c r="S19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.68153846153846231</v>
       </c>
       <c r="T19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.69338461538461615</v>
       </c>
       <c r="U19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.70523076923076999</v>
       </c>
       <c r="V19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.71707692307692383</v>
       </c>
       <c r="W19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.72892307692307767</v>
       </c>
       <c r="X19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.74076923076923151</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.75261538461538535</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.76446153846153919</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.77630769230769303</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.78815384615384687</v>
       </c>
       <c r="AC19">
@@ -8756,55 +8755,55 @@
         <v>0.8</v>
       </c>
       <c r="AE19">
-        <f t="shared" ref="AE19:AQ19" si="9">AD19</f>
+        <f t="shared" ref="AE19:AQ19" si="6">AD19</f>
         <v>0.8</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="AR19">
@@ -8816,17 +8815,17 @@
         <v>0.8</v>
       </c>
       <c r="AT19">
-        <f t="shared" ref="AT19:AU19" si="10">AS19</f>
+        <f t="shared" ref="AT19:AU19" si="7">AS19</f>
         <v>0.8</v>
       </c>
       <c r="AU19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f>A19+1</f>
         <v>2036</v>
       </c>
       <c r="B20">
@@ -8834,14 +8833,14 @@
         <v>75.800000000000011</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f>B20/100</f>
         <v>0.75800000000000012</v>
       </c>
       <c r="L20" t="s">
         <v>20</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.39750000000000008</v>
       </c>
       <c r="N20">
@@ -8861,47 +8860,47 @@
         <v>0.39803846153846156</v>
       </c>
       <c r="R20">
-        <f t="shared" ref="R20:AB20" si="11">FORECAST(R16,$T$4:$U$4,$Q$2:$R$2)</f>
+        <f t="shared" ref="R20:AB20" si="8">FORECAST(R16,$T$4:$U$4,$Q$2:$R$2)</f>
         <v>0.39857692307692316</v>
       </c>
       <c r="S20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.39911538461538476</v>
       </c>
       <c r="T20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.39965384615384614</v>
       </c>
       <c r="U20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40019230769230774</v>
       </c>
       <c r="V20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40073076923076933</v>
       </c>
       <c r="W20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40126923076923071</v>
       </c>
       <c r="X20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40180769230769231</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40234615384615391</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40288461538461529</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40342307692307688</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.40396153846153848</v>
       </c>
       <c r="AC20">
@@ -8913,55 +8912,55 @@
         <v>0.40463333333333334</v>
       </c>
       <c r="AE20">
-        <f t="shared" ref="AE20:AQ20" si="12">FORECAST(AE16,$U$4:$V$4,$R$2:$S$2)</f>
+        <f t="shared" ref="AE20:AQ20" si="9">FORECAST(AE16,$U$4:$V$4,$R$2:$S$2)</f>
         <v>0.40476666666666666</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40490000000000004</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40503333333333336</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40516666666666667</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40529999999999999</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40543333333333337</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40556666666666669</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40570000000000001</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40583333333333332</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.4059666666666667</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40610000000000002</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40623333333333334</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.40636666666666665</v>
       </c>
       <c r="AR20">
@@ -8973,17 +8972,17 @@
         <v>0.40650000000000003</v>
       </c>
       <c r="AT20">
-        <f t="shared" ref="AT20:AU20" si="13">AS20</f>
+        <f t="shared" ref="AT20:AU20" si="10">AS20</f>
         <v>0.40650000000000003</v>
       </c>
       <c r="AU20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.40650000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f>A20+1</f>
         <v>2037</v>
       </c>
       <c r="B21">
@@ -8991,14 +8990,14 @@
         <v>76</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f>B21/100</f>
         <v>0.76</v>
       </c>
       <c r="L21" t="s">
         <v>33</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="N21">
@@ -9018,107 +9017,107 @@
         <v>0.35803571428571423</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:AQ21" si="14">FORECAST(R16,$T$6:$U$6,$T$5:$U$5)</f>
+        <f t="shared" ref="R21:AQ21" si="11">FORECAST(R16,$T$6:$U$6,$T$5:$U$5)</f>
         <v>0.36107142857142804</v>
       </c>
       <c r="S21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.36410714285714274</v>
       </c>
       <c r="T21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.36714285714285744</v>
       </c>
       <c r="U21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.37017857142857125</v>
       </c>
       <c r="V21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.37321428571428594</v>
       </c>
       <c r="W21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.37624999999999975</v>
       </c>
       <c r="X21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.37928571428571445</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.38232142857142826</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.38535714285714295</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.38839285714285676</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.39142857142857146</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.39446428571428527</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.39749999999999996</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.40053571428571377</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.40357142857142847</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.40660714285714317</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.40964285714285698</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.41267857142857167</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.41571428571428548</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.41875000000000018</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.42178571428571399</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.42482142857142868</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.42785714285714249</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.43089285714285719</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.433928571428571</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.43696428571428569</v>
       </c>
       <c r="AR21">
@@ -9130,189 +9129,189 @@
         <v>0.44</v>
       </c>
       <c r="AT21">
-        <f t="shared" ref="AT21:AU23" si="15">AS21</f>
+        <f t="shared" ref="AT21:AU23" si="12">AS21</f>
         <v>0.44</v>
       </c>
       <c r="AU21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.44</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f>A21+1</f>
         <v>2038</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B34" si="16">$B$21</f>
+        <f t="shared" ref="B22:B34" si="13">$B$21</f>
         <v>76</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f>B22/100</f>
         <v>0.76</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
       </c>
       <c r="M22">
-        <f>$R$7</f>
+        <f>$P$22</f>
+        <v>0.21</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:O22" si="14">$P$22</f>
+        <v>0.21</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="14"/>
+        <v>0.21</v>
+      </c>
+      <c r="P22">
+        <f>Q7</f>
+        <v>0.21</v>
+      </c>
+      <c r="Q22">
+        <f>TREND($Q$7:$R$7,$Q$2:$R$2,Q16)</f>
+        <v>0.21230769230769209</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:AD22" si="15">TREND($Q$7:$R$7,$Q$2:$R$2,R16)</f>
+        <v>0.21461538461538421</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="15"/>
+        <v>0.21692307692307722</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="15"/>
+        <v>0.21923076923076934</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="15"/>
+        <v>0.22153846153846146</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="15"/>
+        <v>0.22384615384615358</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="15"/>
+        <v>0.22615384615384571</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="15"/>
+        <v>0.22846153846153872</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="15"/>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="15"/>
+        <v>0.23307692307692296</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="15"/>
+        <v>0.23538461538461508</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="15"/>
+        <v>0.2376923076923072</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="15"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="AD22">
+        <f>TREND($R$7:$S$7,$R$2:$S$2,AD16)</f>
         <v>0.24</v>
       </c>
-      <c r="N22">
-        <f t="shared" ref="N22:AB22" si="17">$R$7</f>
+      <c r="AE22">
+        <f t="shared" ref="AE22:AU22" si="16">TREND($R$7:$S$7,$R$2:$S$2,AE16)</f>
         <v>0.24</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="17"/>
+      <c r="AF22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="17"/>
+      <c r="AG22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="17"/>
+      <c r="AH22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="17"/>
+      <c r="AI22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="17"/>
+      <c r="AJ22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="17"/>
+      <c r="AK22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="17"/>
+      <c r="AL22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="V22">
-        <f t="shared" si="17"/>
+      <c r="AM22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="17"/>
+      <c r="AN22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="X22">
-        <f t="shared" si="17"/>
+      <c r="AO22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="Y22">
-        <f t="shared" si="17"/>
+      <c r="AP22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="Z22">
-        <f t="shared" si="17"/>
+      <c r="AQ22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="AA22">
-        <f t="shared" si="17"/>
+      <c r="AR22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="AB22">
-        <f t="shared" si="17"/>
+      <c r="AS22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="AC22">
-        <f>R7</f>
+      <c r="AT22">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="AD22">
-        <f>AC22</f>
-        <v>0.24</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" ref="AE22:AQ22" si="18">AD22</f>
-        <v>0.24</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AL22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AM22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AQ22">
-        <f t="shared" si="18"/>
-        <v>0.24</v>
-      </c>
-      <c r="AR22">
-        <f>S7</f>
-        <v>0.24</v>
-      </c>
-      <c r="AS22">
-        <f>AR22</f>
-        <v>0.24</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" si="15"/>
-        <v>0.24</v>
-      </c>
       <c r="AU22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A23">
-        <f t="shared" si="3"/>
+        <f>A22+1</f>
         <v>2039</v>
       </c>
       <c r="B23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f>B23/100</f>
         <v>0.76</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="N23">
@@ -9332,47 +9331,47 @@
         <v>0.30076923076923379</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:AB23" si="19">FORECAST(R16,$Q$8:$R$8,$Q$2:$R$2)</f>
+        <f t="shared" ref="R23:AB23" si="17">FORECAST(R16,$Q$8:$R$8,$Q$2:$R$2)</f>
         <v>0.3140384615384626</v>
       </c>
       <c r="S23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.32730769230769496</v>
       </c>
       <c r="T23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.34057692307692378</v>
       </c>
       <c r="U23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.35384615384615614</v>
       </c>
       <c r="V23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.36711538461538495</v>
       </c>
       <c r="W23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.38038461538461732</v>
       </c>
       <c r="X23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.39365384615384613</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.4069230769230785</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.42019230769231086</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.43346153846153967</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.44673076923077204</v>
       </c>
       <c r="AC23">
@@ -9384,55 +9383,55 @@
         <v>0.46</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AQ23" si="20">AD23</f>
+        <f t="shared" ref="AE23:AQ23" si="18">AD23</f>
         <v>0.46</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.46</v>
       </c>
       <c r="AR23">
@@ -9444,32 +9443,32 @@
         <v>0.46</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.46</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.46</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f>A23+1</f>
         <v>2040</v>
       </c>
       <c r="B24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f>B24/100</f>
         <v>0.76</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="N24">
@@ -9489,137 +9488,137 @@
         <v>0.3</v>
       </c>
       <c r="R24">
-        <f t="shared" ref="R24:AU24" si="21">Q24</f>
+        <f t="shared" ref="R24:AU24" si="19">Q24</f>
         <v>0.3</v>
       </c>
       <c r="S24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="T24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="U24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="V24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="W24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="X24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f>A24+1</f>
         <v>2041</v>
       </c>
       <c r="B25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f>B25/100</f>
         <v>0.76</v>
       </c>
       <c r="L25" t="s">
@@ -9634,149 +9633,149 @@
         <v>0.22689835106537268</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:AU26" si="22">N25</f>
+        <f t="shared" ref="O25:AU26" si="20">N25</f>
         <v>0.22689835106537268</v>
       </c>
       <c r="P25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="R25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="S25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="T25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="U25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="V25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="W25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="X25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22689835106537268</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f>A25+1</f>
         <v>2042</v>
       </c>
       <c r="B26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f>B26/100</f>
         <v>0.76</v>
       </c>
       <c r="L26" t="s">
@@ -9791,149 +9790,149 @@
         <v>0.14120000000000002</v>
       </c>
       <c r="O26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="P26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="R26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="S26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="T26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="U26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="V26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="W26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="X26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.14120000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f>A26+1</f>
         <v>2043</v>
       </c>
       <c r="B27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f>B27/100</f>
         <v>0.76</v>
       </c>
       <c r="L27" t="s">
@@ -9948,149 +9947,149 @@
         <v>0.11790000000000003</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:AU27" si="23">N27</f>
+        <f t="shared" ref="O27:AU27" si="21">N27</f>
         <v>0.11790000000000003</v>
       </c>
       <c r="P27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="R27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="S27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="T27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="U27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="V27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="W27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="X27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AQ27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AS27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.11790000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f>A27+1</f>
         <v>2044</v>
       </c>
       <c r="B28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f>B28/100</f>
         <v>0.76</v>
       </c>
       <c r="L28" t="s">
@@ -10117,47 +10116,47 @@
         <v>0.58338461538461317</v>
       </c>
       <c r="R28">
-        <f t="shared" ref="R28:AB28" si="24">FORECAST(R16,$Q$14:$R$14,$Q$2:$R$2)</f>
+        <f t="shared" ref="R28:AB28" si="22">FORECAST(R16,$Q$14:$R$14,$Q$2:$R$2)</f>
         <v>0.59726923076922844</v>
       </c>
       <c r="S28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.61115384615384372</v>
       </c>
       <c r="T28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.62503846153845899</v>
       </c>
       <c r="U28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.63892307692307426</v>
       </c>
       <c r="V28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.65280769230768954</v>
       </c>
       <c r="W28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.66669230769230481</v>
       </c>
       <c r="X28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.68057692307692008</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.69446153846153535</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.70834615384615063</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.7222307692307659</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.73611538461538117</v>
       </c>
       <c r="AC28">
@@ -10169,55 +10168,55 @@
         <v>0.7506666666666667</v>
       </c>
       <c r="AE28">
-        <f t="shared" ref="AE28:AQ28" si="25">FORECAST(AE16,$R$14:$S$14,$R$2:$S$2)</f>
+        <f t="shared" ref="AE28:AQ28" si="23">FORECAST(AE16,$R$14:$S$14,$R$2:$S$2)</f>
         <v>0.7513333333333333</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75200000000000011</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75266666666666671</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.7533333333333333</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75400000000000011</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75466666666666671</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.7553333333333333</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75600000000000012</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75666666666666671</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.7573333333333333</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75800000000000012</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.75866666666666671</v>
       </c>
       <c r="AQ28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.7593333333333333</v>
       </c>
       <c r="AR28">
@@ -10229,25 +10228,25 @@
         <v>0.76</v>
       </c>
       <c r="AT28">
-        <f t="shared" ref="AT28:AU28" si="26">AS28</f>
+        <f t="shared" ref="AT28:AU28" si="24">AS28</f>
         <v>0.76</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.76</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f>A28+1</f>
         <v>2045</v>
       </c>
       <c r="B29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f>B29/100</f>
         <v>0.76</v>
       </c>
       <c r="L29" t="s">
@@ -10274,47 +10273,47 @@
         <v>0.36</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:AB29" si="27">Q29</f>
+        <f t="shared" ref="R29:AB29" si="25">Q29</f>
         <v>0.36</v>
       </c>
       <c r="S29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="T29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="U29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="V29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="W29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="X29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.36</v>
       </c>
       <c r="AC29">
@@ -10326,55 +10325,55 @@
         <v>0.3620000000000001</v>
       </c>
       <c r="AE29">
-        <f t="shared" ref="AE29:AQ29" si="28">FORECAST(AE16,$R$11:$S$11,$R$2:$S$2)</f>
+        <f t="shared" ref="AE29:AQ29" si="26">FORECAST(AE16,$R$11:$S$11,$R$2:$S$2)</f>
         <v>0.36399999999999988</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.36600000000000055</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.36800000000000033</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.37000000000000011</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.37200000000000077</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.37400000000000055</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.37600000000000033</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.37800000000000011</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.37999999999999989</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.38200000000000056</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.38400000000000034</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.38600000000000012</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.38800000000000079</v>
       </c>
       <c r="AR29">
@@ -10386,82 +10385,82 @@
         <v>0.39</v>
       </c>
       <c r="AT29">
-        <f t="shared" ref="AT29:AU29" si="29">AS29</f>
+        <f t="shared" ref="AT29:AU29" si="27">AS29</f>
         <v>0.39</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.39</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f>A29+1</f>
         <v>2046</v>
       </c>
       <c r="B30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f>B30/100</f>
         <v>0.76</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A31">
-        <f t="shared" si="3"/>
+        <f>A30+1</f>
         <v>2047</v>
       </c>
       <c r="B31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f>B31/100</f>
         <v>0.76</v>
       </c>
       <c r="AS31" s="1"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A32">
-        <f t="shared" si="3"/>
+        <f>A31+1</f>
         <v>2048</v>
       </c>
       <c r="B32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f>B32/100</f>
         <v>0.76</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
-        <f t="shared" si="3"/>
+        <f>A32+1</f>
         <v>2049</v>
       </c>
       <c r="B33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f>B33/100</f>
         <v>0.76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
-        <f t="shared" si="3"/>
+        <f>A33+1</f>
         <v>2050</v>
       </c>
       <c r="B34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f>B34/100</f>
         <v>0.76</v>
       </c>
     </row>
@@ -10484,7 +10483,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:AJ10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16232,71 +16231,71 @@
       </c>
       <c r="B7" s="7">
         <f>Calculations!M22</f>
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="C7" s="7">
         <f>Calculations!N22</f>
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="D7" s="7">
         <f>Calculations!O22</f>
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="E7" s="7">
         <f>Calculations!P22</f>
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="F7" s="7">
         <f>Calculations!Q22</f>
-        <v>0.24</v>
+        <v>0.21230769230769209</v>
       </c>
       <c r="G7" s="7">
         <f>Calculations!R22</f>
-        <v>0.24</v>
+        <v>0.21461538461538421</v>
       </c>
       <c r="H7" s="7">
         <f>Calculations!S22</f>
-        <v>0.24</v>
+        <v>0.21692307692307722</v>
       </c>
       <c r="I7" s="7">
         <f>Calculations!T22</f>
-        <v>0.24</v>
+        <v>0.21923076923076934</v>
       </c>
       <c r="J7" s="7">
         <f>Calculations!U22</f>
-        <v>0.24</v>
+        <v>0.22153846153846146</v>
       </c>
       <c r="K7" s="7">
         <f>Calculations!V22</f>
-        <v>0.24</v>
+        <v>0.22384615384615358</v>
       </c>
       <c r="L7" s="7">
         <f>Calculations!W22</f>
-        <v>0.24</v>
+        <v>0.22615384615384571</v>
       </c>
       <c r="M7" s="7">
         <f>Calculations!X22</f>
-        <v>0.24</v>
+        <v>0.22846153846153872</v>
       </c>
       <c r="N7" s="7">
         <f>Calculations!Y22</f>
-        <v>0.24</v>
+        <v>0.23076923076923084</v>
       </c>
       <c r="O7" s="7">
         <f>Calculations!Z22</f>
-        <v>0.24</v>
+        <v>0.23307692307692296</v>
       </c>
       <c r="P7" s="7">
         <f>Calculations!AA22</f>
-        <v>0.24</v>
+        <v>0.23538461538461508</v>
       </c>
       <c r="Q7" s="7">
         <f>Calculations!AB22</f>
-        <v>0.24</v>
+        <v>0.2376923076923072</v>
       </c>
       <c r="R7" s="7">
         <f>Calculations!AC22</f>
-        <v>0.24</v>
+        <v>0.24000000000000021</v>
       </c>
       <c r="S7" s="7">
         <f>Calculations!AD22</f>

--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\BECF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Downloads\eps-india-3.1.3.4 - LG\eps-india-3.1.3.4\InputData - LG\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6820B7F2-58C4-446D-9AA9-C25F798EEF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="4020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId8"/>
     <sheet name="BECF-new" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Deepthi Swamy</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -318,12 +320,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Deepthi Swamy</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0" shapeId="0">
+    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -479,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -503,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0" shapeId="0">
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -553,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -601,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0">
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -625,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0">
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1181,14 +1183,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="17">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="186" formatCode="0%;\ \(0%\);\ \-"/>
+    <numFmt numFmtId="196" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="197" formatCode="0.00_)"/>
+    <numFmt numFmtId="198" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="215" formatCode="0.0_ ;\-0.0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,8 +1270,448 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.5"/>
+      <color theme="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Footlight MT Light"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="FrankLinGothicCond"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Antique Olive"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="FrankLinGothicCond"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="MS Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Footlight MT Light"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="FrankLinGothicCond"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Small Fonts"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="FrankLinGothicCond"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="FrankLinGothicCond"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="FrankLinGothicCond"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="FranklinGothicCond"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="68">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,8 +1760,327 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1498,13 +2272,859 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="30" applyFill="0">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="30" applyFill="0">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="39" fillId="56" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="56" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="56" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="196" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="50" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="63" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="50" fillId="63" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="50" fillId="63" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="53" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="55" fillId="0" borderId="28">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="65" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="65" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="65" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="66" borderId="0" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="67" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="80" fillId="67" borderId="0"/>
+    <xf numFmtId="167" fontId="81" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="81" fillId="40" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="215" fontId="17" fillId="40" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="81" fillId="40" borderId="26">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="81" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="1" fontId="81" fillId="40" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="1" fontId="81" fillId="40" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1562,22 +3182,22 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1589,14 +3209,574 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="11" fillId="41" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="506">
+    <cellStyle name="20% - Accent1 2" xfId="123" xr:uid="{138DB903-8845-4825-9F2B-6774F377C916}"/>
+    <cellStyle name="20% - Accent1 3" xfId="282" xr:uid="{73A67024-127B-47C3-BA14-B0A137E1A082}"/>
+    <cellStyle name="20% - Accent1 4" xfId="286" xr:uid="{33BD2B9E-AAC2-4FD7-8C19-FE86619B1528}"/>
+    <cellStyle name="20% - Accent1 5" xfId="300" xr:uid="{47F7D03F-0B33-4298-93E2-9497A34088CC}"/>
+    <cellStyle name="20% - Accent2 2" xfId="288" xr:uid="{4AB9FD69-AF07-4552-9DFE-86CAF8728F66}"/>
+    <cellStyle name="20% - Accent2 3" xfId="302" xr:uid="{4DC770EE-CE11-46B5-A316-2238303A4F5C}"/>
+    <cellStyle name="20% - Accent2 4" xfId="263" xr:uid="{2B9DBF87-B3D5-4051-91A3-C50D33B94666}"/>
+    <cellStyle name="20% - Accent3 2" xfId="290" xr:uid="{8F271287-0D13-42B7-B7A4-0005129DA2EE}"/>
+    <cellStyle name="20% - Accent3 3" xfId="304" xr:uid="{30C94A6A-A1C4-442C-86E9-25E608F27E97}"/>
+    <cellStyle name="20% - Accent3 4" xfId="267" xr:uid="{5E4F0253-F809-4B72-B370-95290A582F2E}"/>
+    <cellStyle name="20% - Accent4 2" xfId="292" xr:uid="{503EEC22-3DE3-44D2-8E8C-EFD44B9B4F83}"/>
+    <cellStyle name="20% - Accent4 3" xfId="306" xr:uid="{3050C66A-C05B-48CF-BDCB-0D364CB2E2EC}"/>
+    <cellStyle name="20% - Accent4 4" xfId="271" xr:uid="{E9DBF15C-CBD6-4036-8582-69A4B8D1803A}"/>
+    <cellStyle name="20% - Accent5 2" xfId="294" xr:uid="{6CBC3732-A84B-4294-A48C-CB8EEC9CCE77}"/>
+    <cellStyle name="20% - Accent5 3" xfId="308" xr:uid="{CD527651-1EC8-420C-BD4E-702986029543}"/>
+    <cellStyle name="20% - Accent5 4" xfId="275" xr:uid="{F0E841F5-53F3-40BF-9859-E72A32CA4F3E}"/>
+    <cellStyle name="20% - Accent6 10" xfId="484" xr:uid="{8DFE4BBF-A176-4973-972E-3964AF7BE3A4}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{7C7C43EE-803A-4250-B26C-88A5F43C2EFF}"/>
+    <cellStyle name="20% - Accent6 3" xfId="240" xr:uid="{E369FA36-A014-4BEF-BF0D-CF0B60B749D9}"/>
+    <cellStyle name="20% - Accent6 3 2" xfId="453" xr:uid="{CEFB79BF-61E6-4AA6-97C1-A7A998691552}"/>
+    <cellStyle name="20% - Accent6 4" xfId="243" xr:uid="{8F7949D7-52E9-4DFB-AD81-478B39424AE6}"/>
+    <cellStyle name="20% - Accent6 4 2" xfId="315" xr:uid="{82C486AA-E8CA-4066-90D5-0498AA31604B}"/>
+    <cellStyle name="20% - Accent6 5" xfId="283" xr:uid="{C6DB3F21-D628-44E4-A748-4025D79837E8}"/>
+    <cellStyle name="20% - Accent6 6" xfId="296" xr:uid="{42E9EA18-A4C7-47E4-9DF1-DB3892CCB25C}"/>
+    <cellStyle name="20% - Accent6 7" xfId="310" xr:uid="{CDA8F1C0-333D-417A-A699-2F6D4460F6FE}"/>
+    <cellStyle name="20% - Accent6 8" xfId="456" xr:uid="{D5966488-BD32-4A24-98FA-D6046A1D806D}"/>
+    <cellStyle name="20% - Accent6 9" xfId="472" xr:uid="{9F0BC8FB-9DEC-437B-B766-19E609C218B9}"/>
+    <cellStyle name="20% - Colore 1" xfId="321" xr:uid="{18D6C872-3242-4899-B0BD-EB232824CEBA}"/>
+    <cellStyle name="20% - Colore 2" xfId="322" xr:uid="{83E421B2-CAD1-48A7-B068-35CEAFC223D0}"/>
+    <cellStyle name="20% - Colore 3" xfId="323" xr:uid="{FBC6C0C3-DE60-492E-97B9-C567DEA2B656}"/>
+    <cellStyle name="20% - Colore 4" xfId="324" xr:uid="{7A562EB0-6B25-44CC-B56C-88638B34BF60}"/>
+    <cellStyle name="20% - Colore 5" xfId="325" xr:uid="{4A12D8A3-D5A7-4F12-B32C-8D902E2972B2}"/>
+    <cellStyle name="20% - Colore 6" xfId="326" xr:uid="{F0C45FC6-B998-4AB1-82FD-473EAE7FA8FA}"/>
+    <cellStyle name="40% - Accent1 2" xfId="287" xr:uid="{52C7C514-3449-4D28-8475-5E9FF6DD55C2}"/>
+    <cellStyle name="40% - Accent1 3" xfId="301" xr:uid="{E734B737-21C6-443B-81E6-43081FF18E74}"/>
+    <cellStyle name="40% - Accent1 4" xfId="260" xr:uid="{03FF30C7-5059-46C3-B6F1-CE9867351233}"/>
+    <cellStyle name="40% - Accent2 2" xfId="289" xr:uid="{23F3816A-9E7D-4B6F-9AA1-F80F4D06BD83}"/>
+    <cellStyle name="40% - Accent2 3" xfId="303" xr:uid="{FA70E363-2D9E-49CC-8BF7-F1C7424F5847}"/>
+    <cellStyle name="40% - Accent2 4" xfId="264" xr:uid="{FF9E629B-4D2F-49FA-B69D-080E7CBEF6B2}"/>
+    <cellStyle name="40% - Accent3 2" xfId="291" xr:uid="{3B1F31AD-9342-4404-B90E-F1548EB5F951}"/>
+    <cellStyle name="40% - Accent3 3" xfId="305" xr:uid="{513BB9E5-2CE6-4C10-8581-B64F528A10F8}"/>
+    <cellStyle name="40% - Accent3 4" xfId="268" xr:uid="{C04CD111-BB5B-4D89-A05B-0E808C10509F}"/>
+    <cellStyle name="40% - Accent4 2" xfId="293" xr:uid="{F164CC4F-B266-45DA-943F-0F10B7ECC634}"/>
+    <cellStyle name="40% - Accent4 3" xfId="307" xr:uid="{3C6568AE-3FD7-45C9-9D12-B15FA906B96D}"/>
+    <cellStyle name="40% - Accent4 4" xfId="272" xr:uid="{D9A0910D-0721-4C53-AF23-A125FD4C310D}"/>
+    <cellStyle name="40% - Accent5 2" xfId="295" xr:uid="{DB54618E-DDBC-406C-9571-B186FE5D67EA}"/>
+    <cellStyle name="40% - Accent5 3" xfId="309" xr:uid="{5631A820-DB24-477D-92FB-F19F525307D6}"/>
+    <cellStyle name="40% - Accent5 4" xfId="276" xr:uid="{83B830E9-7DA4-497D-BC6F-6DE075871EE6}"/>
+    <cellStyle name="40% - Accent6 2" xfId="297" xr:uid="{FF06E4F2-C91F-4195-9A45-C93F213A152C}"/>
+    <cellStyle name="40% - Accent6 3" xfId="311" xr:uid="{58DF0F86-11D6-41F0-B118-4972966F5456}"/>
+    <cellStyle name="40% - Accent6 4" xfId="278" xr:uid="{B3A5A379-A931-4F8D-9F58-282241D7EF45}"/>
+    <cellStyle name="40% - Colore 1" xfId="327" xr:uid="{48BBCC4C-1673-4A6F-90CE-96C4E0C487D8}"/>
+    <cellStyle name="40% - Colore 2" xfId="328" xr:uid="{C0914507-DA71-4FCD-8D36-BBA645C04BAA}"/>
+    <cellStyle name="40% - Colore 3" xfId="329" xr:uid="{04C545B9-7799-480E-9EDA-BBEF4B121F26}"/>
+    <cellStyle name="40% - Colore 4" xfId="330" xr:uid="{60894408-786C-40EE-83FA-D64B39AEB271}"/>
+    <cellStyle name="40% - Colore 5" xfId="331" xr:uid="{CCE9F2C7-BDC3-491C-B5B2-F14803A5F349}"/>
+    <cellStyle name="40% - Colore 6" xfId="332" xr:uid="{43466C48-B6E7-4F38-B040-5606869AB726}"/>
+    <cellStyle name="60% - Accent1 2" xfId="261" xr:uid="{6CE3EE9C-8A26-432E-96A1-A353FA012BD3}"/>
+    <cellStyle name="60% - Accent2 2" xfId="265" xr:uid="{D7F2C58A-11F8-4B99-B970-11B2797E3548}"/>
+    <cellStyle name="60% - Accent3 2" xfId="269" xr:uid="{A4044853-98D4-459E-B6CF-A87E1F8F8408}"/>
+    <cellStyle name="60% - Accent4 2" xfId="273" xr:uid="{2ED5072A-7B8D-43A3-8854-74D529755B01}"/>
+    <cellStyle name="60% - Accent5 2" xfId="277" xr:uid="{F6096D95-948F-4A97-8934-D96BCD6A23D1}"/>
+    <cellStyle name="60% - Accent6 2" xfId="279" xr:uid="{2E2B5196-1531-4DC9-A98E-779170F11E5F}"/>
+    <cellStyle name="60% - Colore 1" xfId="333" xr:uid="{7DA2459E-4E7A-4F62-A09C-666353E1E294}"/>
+    <cellStyle name="60% - Colore 2" xfId="334" xr:uid="{B1FA753E-DAF5-44C3-A4F5-BC55434D716E}"/>
+    <cellStyle name="60% - Colore 3" xfId="335" xr:uid="{3E5B6D8D-6067-4E4D-9AC4-6D80F33A1B7B}"/>
+    <cellStyle name="60% - Colore 4" xfId="336" xr:uid="{BA2738BE-25C3-4701-B789-618D7E6EEF23}"/>
+    <cellStyle name="60% - Colore 5" xfId="337" xr:uid="{D5C89879-A058-4785-A177-CE999EFBA6C1}"/>
+    <cellStyle name="60% - Colore 6" xfId="338" xr:uid="{08DE4968-7AF3-4BD5-8C58-CEE1114A3418}"/>
+    <cellStyle name="A - a heading" xfId="475" xr:uid="{A7FFF2D4-2DF7-44C8-A85B-48E044EF473F}"/>
+    <cellStyle name="A - bold" xfId="478" xr:uid="{2C8A1FD7-ED78-4590-85E0-AA58F635D9A4}"/>
+    <cellStyle name="A - bottom border" xfId="480" xr:uid="{9FF0963E-92EE-4FBF-8A86-BD4EBA0FDDF9}"/>
+    <cellStyle name="A - header" xfId="477" xr:uid="{87DF5D46-60A8-45A0-9A1D-10DFD712AFFE}"/>
+    <cellStyle name="A - header 2" xfId="492" xr:uid="{EA2EE5DE-D80D-46EE-96E3-CB03B7621BD3}"/>
+    <cellStyle name="A - header 2 2" xfId="496" xr:uid="{A6E36063-0FAB-4E4D-86A0-C990C0476752}"/>
+    <cellStyle name="A - normal" xfId="476" xr:uid="{541A1E28-9048-4F2C-96AB-57CFCC1B9356}"/>
+    <cellStyle name="A - percent" xfId="481" xr:uid="{EAB9EF3F-4657-49FE-835E-84E0AFEAFE6A}"/>
+    <cellStyle name="Accent1 2" xfId="259" xr:uid="{96BF0213-F24E-4DB6-B477-E28E52370C7A}"/>
+    <cellStyle name="Accent2 2" xfId="262" xr:uid="{C044D26D-CB75-48E7-A14A-14E6A20413EE}"/>
+    <cellStyle name="Accent3 2" xfId="266" xr:uid="{25FC4A95-CFD5-42B0-ADA1-E04AEAE1542E}"/>
+    <cellStyle name="Accent4 2" xfId="270" xr:uid="{7A43A7CB-E5F1-41B3-9B17-7435DA992C06}"/>
+    <cellStyle name="Accent5 2" xfId="274" xr:uid="{33171ED5-CD1F-4AE9-9738-A7427C7F6844}"/>
+    <cellStyle name="Accent6 2" xfId="244" xr:uid="{0CAFD6E7-1FC8-495D-A165-30C254F5B826}"/>
+    <cellStyle name="Bad 2" xfId="250" xr:uid="{19FF8F9B-8014-4DB6-9753-6C047FAB5E0E}"/>
+    <cellStyle name="Best" xfId="339" xr:uid="{47775A3C-347A-4D9D-8CE2-DFCE05A9D8A9}"/>
+    <cellStyle name="BORDERS" xfId="340" xr:uid="{F244C31D-9F02-4659-8986-4ACE7AE4ACB5}"/>
+    <cellStyle name="BORDERS 2" xfId="341" xr:uid="{CF45A9F7-BEE1-4AF4-917F-4CE72D94C581}"/>
+    <cellStyle name="Calc Currency (0)" xfId="342" xr:uid="{E8F549D9-E044-4E4C-BFF5-DEE070DB14B8}"/>
+    <cellStyle name="Calcolo" xfId="343" xr:uid="{6B995E81-74BF-4207-AE97-3002E80D8A27}"/>
+    <cellStyle name="Calcolo 2" xfId="344" xr:uid="{22347DAD-3F91-49EC-8FB2-8E57F762C48B}"/>
+    <cellStyle name="Calcolo 3" xfId="345" xr:uid="{0BBDFEFE-D147-4570-9D0A-F2AB6EA3E5F5}"/>
+    <cellStyle name="Calculation 2" xfId="253" xr:uid="{D760AB68-D486-45CD-9A56-771D7725E0A3}"/>
+    <cellStyle name="Cella collegata" xfId="346" xr:uid="{3B2CE786-EA4A-44E4-852D-50C8A3622750}"/>
+    <cellStyle name="Cella da controllare" xfId="347" xr:uid="{53A9B583-F854-41DE-AD1B-075F1BFCB86E}"/>
+    <cellStyle name="Check Cell 2" xfId="255" xr:uid="{D6822DE4-777E-4A9A-A072-DD0D7CB4310E}"/>
+    <cellStyle name="Colore 1" xfId="348" xr:uid="{D6453D12-C57C-4640-83A9-A5417C2B1838}"/>
+    <cellStyle name="Colore 2" xfId="349" xr:uid="{6FA433CF-493C-4422-83B3-FC39D6C75A3E}"/>
+    <cellStyle name="Colore 3" xfId="350" xr:uid="{84D4BF2A-FBC6-431E-B130-F499930DBFF3}"/>
+    <cellStyle name="Colore 4" xfId="351" xr:uid="{696CA2ED-4952-4CEA-BCD5-B089C13B63D9}"/>
+    <cellStyle name="Colore 5" xfId="352" xr:uid="{BD82C18F-F345-4F59-964C-223579DF8CBF}"/>
+    <cellStyle name="Colore 6" xfId="353" xr:uid="{8949722E-4E34-44AB-81D1-7C0B4E96E2A0}"/>
+    <cellStyle name="Column - Style5" xfId="354" xr:uid="{017C6EF4-F224-40BA-8D0F-A2D7DD8F9A63}"/>
+    <cellStyle name="Column - Style6" xfId="355" xr:uid="{E05AF1B9-8424-43B3-B923-B97B62B3B26F}"/>
+    <cellStyle name="Column headings" xfId="356" xr:uid="{5CDA4A5D-D7D1-449F-9356-0487D50FEE0E}"/>
+    <cellStyle name="Comma 2" xfId="126" xr:uid="{17C98DB9-70EC-4FDF-9C8D-41FF6216CE78}"/>
+    <cellStyle name="Comma 2 2" xfId="357" xr:uid="{6D2CCADD-F3E6-4EED-AFD2-1FC4F3862481}"/>
+    <cellStyle name="Comma 2 3" xfId="317" xr:uid="{BFF261C8-C74D-4CD0-AAC9-B24E5D93AFD4}"/>
+    <cellStyle name="Comma 2 4" xfId="470" xr:uid="{C01362EB-213E-4A36-8A9D-97CF0DE0456E}"/>
+    <cellStyle name="Comma 3" xfId="313" xr:uid="{6FFDC9F4-BDC1-4017-AA7C-BA77A0FC8C5F}"/>
+    <cellStyle name="Comma 3 2" xfId="359" xr:uid="{220C5F09-C467-4AFC-8951-7A86077DE8D0}"/>
+    <cellStyle name="Comma 3 3" xfId="358" xr:uid="{14FE23F9-5AE3-4814-B824-7ADC7D99588E}"/>
+    <cellStyle name="Comma 4" xfId="360" xr:uid="{705F9B51-580E-4F49-962D-B5A0F82E17D3}"/>
+    <cellStyle name="Comma 4 2" xfId="459" xr:uid="{DA6BC845-A44A-419B-8CB1-990BC9F39243}"/>
+    <cellStyle name="Comma 5" xfId="361" xr:uid="{C43D2C74-EACD-4A00-8380-CEC1CDE94B56}"/>
+    <cellStyle name="Comma 6" xfId="319" xr:uid="{80D83589-5028-42C5-BE88-B5EF99F19F3F}"/>
+    <cellStyle name="Comma 7" xfId="473" xr:uid="{81B0390F-1D8B-41E1-9C41-DCA542B5261C}"/>
+    <cellStyle name="Comma 8" xfId="483" xr:uid="{277F3DB7-D2B2-4839-9395-08496D9E6559}"/>
+    <cellStyle name="Comma 9" xfId="5" xr:uid="{780AEEBA-1A8E-4DFD-9855-A77907878F99}"/>
+    <cellStyle name="Comma0" xfId="362" xr:uid="{95F5EB52-A08C-4B06-B5CF-7E9A2B0424B0}"/>
+    <cellStyle name="Copied" xfId="363" xr:uid="{B77619D6-F397-47F6-851F-CC7D2B18B755}"/>
+    <cellStyle name="Currency 2" xfId="454" xr:uid="{FFF820C8-CECF-455B-A3BD-7106B265B79B}"/>
+    <cellStyle name="Currency0" xfId="364" xr:uid="{61018405-B06B-46AA-B4E5-02214AB4280B}"/>
+    <cellStyle name="Data (Number)" xfId="365" xr:uid="{9C5850ED-FF0F-4DBA-B72A-D63465989BD5}"/>
+    <cellStyle name="Data (Text)" xfId="366" xr:uid="{FFCF7B7E-E893-4378-9AAC-AC07A9E497C0}"/>
+    <cellStyle name="Date" xfId="367" xr:uid="{D4E191DB-F43B-47AB-ACC8-1FD885F9B416}"/>
+    <cellStyle name="Entered" xfId="368" xr:uid="{9988C0FE-EA95-4DB4-96F5-782C8249CC84}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="10" xr:uid="{2BABCFA7-9D78-4F9B-98FF-DEA2135819DC}"/>
+    <cellStyle name="Explanatory Text 2" xfId="257" xr:uid="{4F24C765-D8E1-4968-A109-BCC0498B081D}"/>
+    <cellStyle name="FIGURES" xfId="369" xr:uid="{B0E3C009-0360-42AD-ADF8-B5EE406857E1}"/>
+    <cellStyle name="Fixed" xfId="370" xr:uid="{72645DD7-293F-4CF5-8616-E0A6AC936DEA}"/>
+    <cellStyle name="Footnote Text" xfId="371" xr:uid="{7623A69F-2C41-4E21-90CA-6F8CF3A7C8B1}"/>
+    <cellStyle name="Good 2" xfId="239" xr:uid="{7A79709C-D664-47CD-9A76-A4FEB757C473}"/>
+    <cellStyle name="Grey" xfId="372" xr:uid="{892C8371-137D-4AB7-B827-45C6A039BFA9}"/>
+    <cellStyle name="Header1" xfId="373" xr:uid="{34CFD04A-1C58-4EBA-8142-8051DBD6E3C7}"/>
+    <cellStyle name="Header2" xfId="374" xr:uid="{931CF2BC-0626-4901-82C8-E17393C88807}"/>
+    <cellStyle name="Header2 2" xfId="375" xr:uid="{D5E9DCB9-BFF0-40FE-A758-4DAE50FC015B}"/>
+    <cellStyle name="Header2 3" xfId="376" xr:uid="{CC969522-6A0A-4842-A948-514B07115431}"/>
+    <cellStyle name="Heading 1 2" xfId="246" xr:uid="{51EABF32-ACDD-43E7-81DD-00A54E4B3911}"/>
+    <cellStyle name="Heading 2 2" xfId="247" xr:uid="{9C2FBB90-A57F-4B95-A7CB-FB53E2F7131A}"/>
+    <cellStyle name="Heading 3 2" xfId="248" xr:uid="{55C9E697-310F-4F52-A0C2-C37EC8DD9FF1}"/>
+    <cellStyle name="Heading 4 2" xfId="249" xr:uid="{02D8A55F-EBFB-4BD6-B593-DF968E5B94C4}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 10" xfId="21" hidden="1" xr:uid="{5E4937A8-5066-4F31-A286-25DB8FDF64C4}"/>
+    <cellStyle name="Hyperlink 10" xfId="176" xr:uid="{4641698A-FF9E-43A0-B32C-5950C7E10EAE}"/>
+    <cellStyle name="Hyperlink 100" xfId="111" hidden="1" xr:uid="{ACA19C1B-8FA5-406B-AC47-94F3495A1653}"/>
+    <cellStyle name="Hyperlink 100" xfId="226" xr:uid="{B4AE80B8-0738-4756-BBEC-8D5B6A42E79D}"/>
+    <cellStyle name="Hyperlink 101" xfId="112" hidden="1" xr:uid="{1B1851EF-00A8-4EDF-AB41-0BC143B1E98B}"/>
+    <cellStyle name="Hyperlink 101" xfId="227" xr:uid="{743682E2-7E02-49DA-A0DE-DD6CE536C7BD}"/>
+    <cellStyle name="Hyperlink 102" xfId="113" hidden="1" xr:uid="{2072943A-4BFD-4A75-BA2E-78B34FE0FCCE}"/>
+    <cellStyle name="Hyperlink 102" xfId="228" xr:uid="{3A9FCAAE-A223-4023-83A5-D371039D2204}"/>
+    <cellStyle name="Hyperlink 103" xfId="114" hidden="1" xr:uid="{760F9F05-3692-4595-8C79-20F7A6145F36}"/>
+    <cellStyle name="Hyperlink 103" xfId="229" xr:uid="{6DCE37FB-9450-4B98-87E8-809B4B94487F}"/>
+    <cellStyle name="Hyperlink 104" xfId="115" hidden="1" xr:uid="{9520BE86-FBB3-4E44-B5B6-2FF1AF43A8C9}"/>
+    <cellStyle name="Hyperlink 104" xfId="230" xr:uid="{F6A375D9-F8E9-46D8-BE0C-89FBFBBB667B}"/>
+    <cellStyle name="Hyperlink 105" xfId="116" hidden="1" xr:uid="{76934F2F-4CBE-44A9-9913-224B208F1A70}"/>
+    <cellStyle name="Hyperlink 105" xfId="231" xr:uid="{A2E84AE3-B5C8-4DA1-966C-E896BB5E40E1}"/>
+    <cellStyle name="Hyperlink 106" xfId="117" hidden="1" xr:uid="{F796ABC8-9748-42E3-AF34-2250AD95D632}"/>
+    <cellStyle name="Hyperlink 106" xfId="232" xr:uid="{E5A9DE28-2D30-4EB8-8152-95FB94FB928C}"/>
+    <cellStyle name="Hyperlink 107" xfId="118" hidden="1" xr:uid="{77D2CD66-C754-4AD7-952E-5F865D3838E8}"/>
+    <cellStyle name="Hyperlink 107" xfId="233" xr:uid="{D3EE1282-1088-4B35-B3C4-5A5C3038EA83}"/>
+    <cellStyle name="Hyperlink 108" xfId="119" hidden="1" xr:uid="{C443BDB2-C630-46CC-BDD5-281932B01029}"/>
+    <cellStyle name="Hyperlink 108" xfId="234" xr:uid="{53B32A94-5C34-4101-BDE9-77A6B74255DB}"/>
+    <cellStyle name="Hyperlink 109" xfId="120" hidden="1" xr:uid="{9FA58F14-381B-4517-9192-7CE18B14694F}"/>
+    <cellStyle name="Hyperlink 109" xfId="235" xr:uid="{F015B5E4-B75E-44A3-ACD5-6ACA1E22D2F1}"/>
+    <cellStyle name="Hyperlink 11" xfId="22" hidden="1" xr:uid="{3DC3FE58-E219-4278-9A4A-A0C9F93D67F5}"/>
+    <cellStyle name="Hyperlink 11" xfId="175" xr:uid="{0CA07CE6-BC5D-4C0B-B766-93D420F7DE1E}"/>
+    <cellStyle name="Hyperlink 110" xfId="121" hidden="1" xr:uid="{A25B8934-B9BF-4530-A23D-5564056D5889}"/>
+    <cellStyle name="Hyperlink 110" xfId="236" xr:uid="{CE83A191-2C7C-46CC-BCC1-BFD360880A48}"/>
+    <cellStyle name="Hyperlink 111" xfId="122" hidden="1" xr:uid="{93589878-498C-40FE-ABDE-93A5E619E1FC}"/>
+    <cellStyle name="Hyperlink 111" xfId="237" xr:uid="{131756FC-FDC4-4F21-9427-01F392D455FA}"/>
+    <cellStyle name="Hyperlink 112" xfId="452" xr:uid="{7C914E3C-E528-4B2C-BEDF-B3C5C1A57F6A}"/>
+    <cellStyle name="Hyperlink 113" xfId="11" xr:uid="{6383D33C-4FFF-4A4F-8922-BCE723A3FBE1}"/>
+    <cellStyle name="Hyperlink 12" xfId="23" hidden="1" xr:uid="{23B080B3-9BBB-4344-B80F-27ABA44FE3A0}"/>
+    <cellStyle name="Hyperlink 12" xfId="174" xr:uid="{A78F696A-5CEC-4664-AC45-2DFCDB282D5B}"/>
+    <cellStyle name="Hyperlink 13" xfId="24" hidden="1" xr:uid="{B4BA9C46-2AD2-405A-8592-49EC6648CFBC}"/>
+    <cellStyle name="Hyperlink 13" xfId="173" xr:uid="{65483464-2E1B-4E02-B660-3A8B2A8521BF}"/>
+    <cellStyle name="Hyperlink 14" xfId="25" hidden="1" xr:uid="{AD3D6189-C502-441A-BA8B-3011317868A7}"/>
+    <cellStyle name="Hyperlink 14" xfId="172" xr:uid="{C3DCB7F2-A33D-4419-8C3E-12F7C11A8535}"/>
+    <cellStyle name="Hyperlink 15" xfId="26" hidden="1" xr:uid="{804AE6D3-2B77-4EB5-95EA-4313C25B59E9}"/>
+    <cellStyle name="Hyperlink 15" xfId="171" xr:uid="{9087B922-ED2D-41FB-ACBA-77BCDB4F5A2A}"/>
+    <cellStyle name="Hyperlink 16" xfId="27" hidden="1" xr:uid="{120DE47F-334C-4FFD-A37E-9D7D7F2311B9}"/>
+    <cellStyle name="Hyperlink 16" xfId="170" xr:uid="{F27B69D9-6565-45DD-A184-23FE2970D6DB}"/>
+    <cellStyle name="Hyperlink 17" xfId="28" hidden="1" xr:uid="{E71FFB0D-9C8C-4C6C-897C-4533A1B76BF8}"/>
+    <cellStyle name="Hyperlink 17" xfId="169" xr:uid="{D3C2EBB5-11CA-42BE-883E-8F282AABB40F}"/>
+    <cellStyle name="Hyperlink 18" xfId="29" hidden="1" xr:uid="{B46669D3-2116-4B77-B75E-B077A64AFFEB}"/>
+    <cellStyle name="Hyperlink 18" xfId="168" xr:uid="{5B1A0349-CDCB-454C-A2CF-A5E892C6F235}"/>
+    <cellStyle name="Hyperlink 19" xfId="30" hidden="1" xr:uid="{194FF3F2-D79C-495A-9E80-7BBD37E66309}"/>
+    <cellStyle name="Hyperlink 19" xfId="167" xr:uid="{5A6B078C-1F15-4B3A-B09D-F6938897AA12}"/>
+    <cellStyle name="Hyperlink 2" xfId="12" hidden="1" xr:uid="{F3F08FFC-3328-4054-8888-7F7521143CF8}"/>
+    <cellStyle name="Hyperlink 2" xfId="124" hidden="1" xr:uid="{CE671963-4B0E-4C65-AED4-277426FA92D6}"/>
+    <cellStyle name="Hyperlink 2" xfId="184" hidden="1" xr:uid="{C78EE8AA-6D34-4ED2-B789-2EF4A2A665FA}"/>
+    <cellStyle name="Hyperlink 2" xfId="238" xr:uid="{9EEA80FD-7D39-4D8B-A358-004F3E8FC1CC}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="377" xr:uid="{2431D75E-709E-4B78-9207-403DB66CDF58}"/>
+    <cellStyle name="Hyperlink 20" xfId="31" hidden="1" xr:uid="{9DCED3B1-8AC1-4D4B-8B51-1574927BDF0A}"/>
+    <cellStyle name="Hyperlink 20" xfId="166" xr:uid="{1E8A49E3-C42B-41D4-A5EF-811333319175}"/>
+    <cellStyle name="Hyperlink 21" xfId="32" hidden="1" xr:uid="{5C173BB8-78D5-4FA1-8EE9-C9FF021FF6EE}"/>
+    <cellStyle name="Hyperlink 21" xfId="165" xr:uid="{A1B8D079-4A59-4950-BE02-D75216F9A604}"/>
+    <cellStyle name="Hyperlink 22" xfId="33" hidden="1" xr:uid="{E2A42ED9-FF64-4E7C-8B3E-AD671B45D14F}"/>
+    <cellStyle name="Hyperlink 22" xfId="164" xr:uid="{791AF6E0-3BA4-46BE-84B1-32AF910FD13E}"/>
+    <cellStyle name="Hyperlink 23" xfId="34" hidden="1" xr:uid="{CDE2B09B-E4A8-4A09-A9EA-F9E4232B138F}"/>
+    <cellStyle name="Hyperlink 23" xfId="163" xr:uid="{66FAD41E-8A0D-4F55-B2B2-B704E94F86C1}"/>
+    <cellStyle name="Hyperlink 24" xfId="35" hidden="1" xr:uid="{A7BB6A41-D975-4660-9F80-6DCF25DE1F51}"/>
+    <cellStyle name="Hyperlink 24" xfId="162" xr:uid="{9D7808B1-B943-4144-B661-F71B18F08F6F}"/>
+    <cellStyle name="Hyperlink 25" xfId="36" hidden="1" xr:uid="{396E07FA-B790-4D20-ABA2-BBE8641FB3DF}"/>
+    <cellStyle name="Hyperlink 25" xfId="161" xr:uid="{1CC4663E-2C31-4570-995A-A4337AC7F8A9}"/>
+    <cellStyle name="Hyperlink 26" xfId="37" hidden="1" xr:uid="{3340C45A-248E-44DE-A06D-352F1A8A486D}"/>
+    <cellStyle name="Hyperlink 26" xfId="160" xr:uid="{A7C481D4-3E84-42C1-8A91-F84767C5096C}"/>
+    <cellStyle name="Hyperlink 27" xfId="38" hidden="1" xr:uid="{2EC209FF-9EB0-478B-B0D4-6EFB582C0D0A}"/>
+    <cellStyle name="Hyperlink 27" xfId="159" xr:uid="{18C44E39-04EB-405D-8277-8CC33CA73665}"/>
+    <cellStyle name="Hyperlink 28" xfId="39" hidden="1" xr:uid="{72A22886-0BBA-4DF9-9F46-1B0F78D5A75B}"/>
+    <cellStyle name="Hyperlink 28" xfId="158" xr:uid="{524B3519-B5F6-46DB-BBD2-7330761DA56B}"/>
+    <cellStyle name="Hyperlink 29" xfId="40" hidden="1" xr:uid="{14E24618-0A65-4F84-A03A-9645EF3DAFB4}"/>
+    <cellStyle name="Hyperlink 29" xfId="157" xr:uid="{000AFA98-1690-4AED-950B-D0B02857D895}"/>
+    <cellStyle name="Hyperlink 3" xfId="14" hidden="1" xr:uid="{C257D318-92B0-4A47-A7F5-4A85ED0B46F4}"/>
+    <cellStyle name="Hyperlink 3" xfId="183" xr:uid="{B8E6A6CD-0960-42BC-947C-2D188DA1DC14}"/>
+    <cellStyle name="Hyperlink 30" xfId="41" hidden="1" xr:uid="{7A10877C-9E02-4662-B9F2-242E1BFAC7C7}"/>
+    <cellStyle name="Hyperlink 30" xfId="156" xr:uid="{EDA9475B-C70A-4E10-AC41-BBE92A043932}"/>
+    <cellStyle name="Hyperlink 31" xfId="42" hidden="1" xr:uid="{8579491A-141A-4625-9325-0D7C89F16EF6}"/>
+    <cellStyle name="Hyperlink 31" xfId="155" xr:uid="{CF6178AD-CEE7-4DCB-BCFB-115CE519E738}"/>
+    <cellStyle name="Hyperlink 32" xfId="43" hidden="1" xr:uid="{12BDCDF1-5DA9-48E1-A475-B16CC1BC6D38}"/>
+    <cellStyle name="Hyperlink 32" xfId="154" xr:uid="{EEFEBA64-CA2B-4E48-9EAB-3E11C1EAD728}"/>
+    <cellStyle name="Hyperlink 33" xfId="44" hidden="1" xr:uid="{0B59C98F-5B09-4ADD-960F-61A19A1E4F58}"/>
+    <cellStyle name="Hyperlink 33" xfId="153" xr:uid="{B83CA5BA-34DD-438C-BF69-AE717477B84E}"/>
+    <cellStyle name="Hyperlink 34" xfId="45" hidden="1" xr:uid="{B171BA95-0DC1-44AB-A98D-F10EB99A5C52}"/>
+    <cellStyle name="Hyperlink 34" xfId="152" xr:uid="{BF238B14-B079-4C86-9C75-254494A20258}"/>
+    <cellStyle name="Hyperlink 35" xfId="46" hidden="1" xr:uid="{883242BC-9479-40D0-BDB1-654815B1A903}"/>
+    <cellStyle name="Hyperlink 35" xfId="151" xr:uid="{D95A5385-E3D9-469E-A616-56B31AD630BC}"/>
+    <cellStyle name="Hyperlink 36" xfId="47" hidden="1" xr:uid="{7887D993-C8EF-4BD0-A536-B96A72CFF7F2}"/>
+    <cellStyle name="Hyperlink 36" xfId="150" xr:uid="{B172881F-6B96-4585-8A6C-CBDCD7D966D5}"/>
+    <cellStyle name="Hyperlink 37" xfId="48" hidden="1" xr:uid="{0B2D0507-376A-4162-B8EA-BF12D3C9DD4A}"/>
+    <cellStyle name="Hyperlink 37" xfId="149" xr:uid="{72A363C3-1D86-4A74-874A-D13274046552}"/>
+    <cellStyle name="Hyperlink 38" xfId="49" hidden="1" xr:uid="{9666C4EB-D33F-46C0-B074-E55CA614AD56}"/>
+    <cellStyle name="Hyperlink 38" xfId="148" xr:uid="{C505456A-B4DD-4031-8EFA-ECC5764BEE2C}"/>
+    <cellStyle name="Hyperlink 39" xfId="50" hidden="1" xr:uid="{0A4FBDA3-6321-42DC-889A-42FE18A8A38E}"/>
+    <cellStyle name="Hyperlink 39" xfId="147" xr:uid="{E1456588-AE60-49D4-8D22-4F4D9DC2A862}"/>
+    <cellStyle name="Hyperlink 4" xfId="15" hidden="1" xr:uid="{A3CF2472-CFEA-42D4-8CCB-F95206B4401D}"/>
+    <cellStyle name="Hyperlink 4" xfId="182" xr:uid="{1E593013-22DB-40B3-A752-FC38E1F004A6}"/>
+    <cellStyle name="Hyperlink 40" xfId="51" hidden="1" xr:uid="{8E7DF401-3A5E-49B6-B40E-AB3D6F3616E0}"/>
+    <cellStyle name="Hyperlink 40" xfId="146" xr:uid="{8E4A7DA1-F6AB-4595-AB77-1B8438BAD766}"/>
+    <cellStyle name="Hyperlink 41" xfId="52" hidden="1" xr:uid="{94B5FE46-1E35-410C-8924-76DC58D89000}"/>
+    <cellStyle name="Hyperlink 41" xfId="145" xr:uid="{DBDAE1CC-297F-4F22-A6A0-1A71C1F349CE}"/>
+    <cellStyle name="Hyperlink 42" xfId="53" hidden="1" xr:uid="{A4D87ED6-85E8-4880-B077-CE061B0FFF04}"/>
+    <cellStyle name="Hyperlink 42" xfId="144" xr:uid="{55F04E43-FCB1-4614-A36E-5A5BC04356B0}"/>
+    <cellStyle name="Hyperlink 43" xfId="54" hidden="1" xr:uid="{CC023CA9-207C-400C-BC1E-FA5A11514925}"/>
+    <cellStyle name="Hyperlink 43" xfId="143" xr:uid="{71F672B1-812C-422D-8076-AA7739974AD2}"/>
+    <cellStyle name="Hyperlink 44" xfId="55" hidden="1" xr:uid="{993CD81C-254D-4081-99E7-27028429B3C0}"/>
+    <cellStyle name="Hyperlink 44" xfId="142" xr:uid="{29A14F0D-C575-455F-8C3B-ED01DC35D744}"/>
+    <cellStyle name="Hyperlink 45" xfId="56" hidden="1" xr:uid="{D56DDC5A-576D-4224-BE9B-DBF2E628FBEB}"/>
+    <cellStyle name="Hyperlink 45" xfId="141" xr:uid="{C4F7B80C-D4FA-4691-8E76-7A79D6B4EAE5}"/>
+    <cellStyle name="Hyperlink 46" xfId="57" hidden="1" xr:uid="{73BD4550-0760-4C21-9987-DE937601D7A4}"/>
+    <cellStyle name="Hyperlink 46" xfId="140" xr:uid="{03F8099F-48C3-4F28-A6D1-EC8EADEBDE9D}"/>
+    <cellStyle name="Hyperlink 47" xfId="58" hidden="1" xr:uid="{9E328669-FBE0-4E8F-804A-23BE2E3075BF}"/>
+    <cellStyle name="Hyperlink 47" xfId="139" xr:uid="{3DFECD03-AD07-4836-8271-636738EF54F1}"/>
+    <cellStyle name="Hyperlink 48" xfId="59" hidden="1" xr:uid="{7C3EF946-B3B3-4477-88CD-2C628DD59B45}"/>
+    <cellStyle name="Hyperlink 48" xfId="138" xr:uid="{7D0638BF-61A8-4CAC-81D2-CC65A7D5A002}"/>
+    <cellStyle name="Hyperlink 49" xfId="60" hidden="1" xr:uid="{40F9A19B-B9BC-4039-9C3D-AED9E9382FF8}"/>
+    <cellStyle name="Hyperlink 49" xfId="137" xr:uid="{DFE269D4-8313-4B76-917C-635340EDE5F5}"/>
+    <cellStyle name="Hyperlink 5" xfId="16" hidden="1" xr:uid="{4D7C2913-F947-4EE6-9F4E-111CA81A9CFB}"/>
+    <cellStyle name="Hyperlink 5" xfId="181" xr:uid="{5F59AE9E-03BD-43BD-9856-5CF2E16E7E75}"/>
+    <cellStyle name="Hyperlink 50" xfId="61" hidden="1" xr:uid="{F540EE42-86F3-45D6-86C9-62A2BDAF55B2}"/>
+    <cellStyle name="Hyperlink 50" xfId="136" xr:uid="{738231EE-A9F0-43D2-A2E0-EC6AADD82A20}"/>
+    <cellStyle name="Hyperlink 51" xfId="62" hidden="1" xr:uid="{D4419873-3258-4D24-A397-FD1B75775D00}"/>
+    <cellStyle name="Hyperlink 51" xfId="135" xr:uid="{9B96BF33-E7BA-4C02-8E69-DF8B935629F5}"/>
+    <cellStyle name="Hyperlink 52" xfId="63" hidden="1" xr:uid="{CDF58D2F-3FED-4761-A81D-0E0F28811B2A}"/>
+    <cellStyle name="Hyperlink 52" xfId="134" xr:uid="{FCD78412-6B25-4040-A165-19695AA91F95}"/>
+    <cellStyle name="Hyperlink 53" xfId="64" hidden="1" xr:uid="{1F25FE5D-3CCF-4206-9265-9AE9D6B65572}"/>
+    <cellStyle name="Hyperlink 53" xfId="133" xr:uid="{18F6233D-5B08-4A63-8F8C-E6280833DA21}"/>
+    <cellStyle name="Hyperlink 54" xfId="65" hidden="1" xr:uid="{3188EE66-64B7-441E-9487-C025568ADC9D}"/>
+    <cellStyle name="Hyperlink 54" xfId="132" xr:uid="{39E26302-6789-4A32-B8B3-3F26F541EDE3}"/>
+    <cellStyle name="Hyperlink 55" xfId="66" hidden="1" xr:uid="{E79E9C5B-3343-4932-A39E-7812F8E85000}"/>
+    <cellStyle name="Hyperlink 55" xfId="131" xr:uid="{1D99F9FD-1227-4262-B20B-A8D79A90968C}"/>
+    <cellStyle name="Hyperlink 56" xfId="67" hidden="1" xr:uid="{C4C3A75F-1CCD-4B9D-8B74-318A50D2626C}"/>
+    <cellStyle name="Hyperlink 56" xfId="130" xr:uid="{5E5C1F73-10C6-4DFE-A853-979F90BF85D4}"/>
+    <cellStyle name="Hyperlink 57" xfId="68" hidden="1" xr:uid="{47BF8760-BD45-4E9F-90FF-96A03E6C4B8D}"/>
+    <cellStyle name="Hyperlink 57" xfId="129" xr:uid="{3EB94590-3CDE-4D38-8E5E-9EF3BB59B81B}"/>
+    <cellStyle name="Hyperlink 58" xfId="69" hidden="1" xr:uid="{91795089-D179-4C88-8A9E-BD487C2BC940}"/>
+    <cellStyle name="Hyperlink 58" xfId="185" xr:uid="{79E0CDF9-41CF-4345-B7D8-E8A270DF14F0}"/>
+    <cellStyle name="Hyperlink 59" xfId="70" hidden="1" xr:uid="{38A7D989-D373-4ECD-AE12-500E20AA5917}"/>
+    <cellStyle name="Hyperlink 59" xfId="128" xr:uid="{7E0A05B4-8B23-4E7B-BB77-C9762B50460B}"/>
+    <cellStyle name="Hyperlink 6" xfId="17" hidden="1" xr:uid="{F70E0169-4FCC-4539-B960-4D0F50127346}"/>
+    <cellStyle name="Hyperlink 6" xfId="180" xr:uid="{1F4E9B9C-E584-4F74-B7A2-2D5CD822E303}"/>
+    <cellStyle name="Hyperlink 60" xfId="71" hidden="1" xr:uid="{FC758E06-788F-4E78-854A-F3F68AF5B09E}"/>
+    <cellStyle name="Hyperlink 60" xfId="186" xr:uid="{D4D74331-99A7-42FA-862E-FEB0FCE7C9B2}"/>
+    <cellStyle name="Hyperlink 61" xfId="72" hidden="1" xr:uid="{77C17F43-A40F-43EA-B651-6A51AE4F3E8E}"/>
+    <cellStyle name="Hyperlink 61" xfId="187" xr:uid="{40AC3D91-4E64-439D-B893-343A09D907F2}"/>
+    <cellStyle name="Hyperlink 62" xfId="73" hidden="1" xr:uid="{02BF8F66-304B-4404-AAC7-AE17C1BB84FB}"/>
+    <cellStyle name="Hyperlink 62" xfId="188" xr:uid="{A571C2CF-7EC9-4CB2-B3B5-6B833B17A981}"/>
+    <cellStyle name="Hyperlink 63" xfId="74" hidden="1" xr:uid="{4F3D6870-BEE1-47E5-B94E-5CAC05E9B1B0}"/>
+    <cellStyle name="Hyperlink 63" xfId="189" xr:uid="{10474CC3-6E67-43A2-BC33-D1FF1B11530B}"/>
+    <cellStyle name="Hyperlink 64" xfId="75" hidden="1" xr:uid="{D01A91DF-7916-4268-B8B4-6FDB2C95D451}"/>
+    <cellStyle name="Hyperlink 64" xfId="190" xr:uid="{F2CD9927-E74A-447E-9372-4043909EF49C}"/>
+    <cellStyle name="Hyperlink 65" xfId="76" hidden="1" xr:uid="{2906F403-4069-4B01-924E-17F899EFDAEB}"/>
+    <cellStyle name="Hyperlink 65" xfId="191" xr:uid="{B7DC3A6B-3C7A-41B4-83D9-775B62BEE165}"/>
+    <cellStyle name="Hyperlink 66" xfId="77" hidden="1" xr:uid="{0CBC9A99-C634-4811-A0B5-3350AA8DDD5C}"/>
+    <cellStyle name="Hyperlink 66" xfId="192" xr:uid="{BB3BB9B8-1A9E-469F-85DD-EA66202366B9}"/>
+    <cellStyle name="Hyperlink 67" xfId="78" hidden="1" xr:uid="{F117C9D7-B4EF-4D0E-B919-E3062B38A1E6}"/>
+    <cellStyle name="Hyperlink 67" xfId="193" xr:uid="{AC192F68-8CB8-470A-8C70-7C6FE1F58B1E}"/>
+    <cellStyle name="Hyperlink 68" xfId="79" hidden="1" xr:uid="{A8A5E31B-B2B0-4869-959C-9A8D4A01E8F4}"/>
+    <cellStyle name="Hyperlink 68" xfId="194" xr:uid="{2E15187C-9A54-43B7-A321-CC7C2E7B510A}"/>
+    <cellStyle name="Hyperlink 69" xfId="80" hidden="1" xr:uid="{643B8C47-2652-42FC-8BFF-51EAE2615739}"/>
+    <cellStyle name="Hyperlink 69" xfId="195" xr:uid="{5DD67B43-CBC5-45F5-969C-EEC33FFEA18B}"/>
+    <cellStyle name="Hyperlink 7" xfId="18" hidden="1" xr:uid="{3C9AD844-F4BC-4E7E-8B90-4AACAB815609}"/>
+    <cellStyle name="Hyperlink 7" xfId="179" xr:uid="{0BD8DE75-7C63-46CE-9AF1-94EFF3EA2CCC}"/>
+    <cellStyle name="Hyperlink 70" xfId="81" hidden="1" xr:uid="{D718CD90-2505-4F4D-A53C-CD51BFF755B4}"/>
+    <cellStyle name="Hyperlink 70" xfId="196" xr:uid="{6927B2CD-4F3A-4079-AE5C-73BDC7630C2A}"/>
+    <cellStyle name="Hyperlink 71" xfId="82" hidden="1" xr:uid="{EB4167AF-AA98-4A21-B548-3577205BCC4F}"/>
+    <cellStyle name="Hyperlink 71" xfId="197" xr:uid="{D4699929-8F28-4AD4-B8A7-BD727725DC14}"/>
+    <cellStyle name="Hyperlink 72" xfId="83" hidden="1" xr:uid="{D9E52F6B-8492-459B-92FE-77A8F46C6244}"/>
+    <cellStyle name="Hyperlink 72" xfId="198" xr:uid="{001D30FF-778B-45D9-839E-DB87CF1D4DF1}"/>
+    <cellStyle name="Hyperlink 73" xfId="84" hidden="1" xr:uid="{33AAD10A-2192-457C-8F50-100E9F03EFAB}"/>
+    <cellStyle name="Hyperlink 73" xfId="199" xr:uid="{2D8F9417-3F4F-46CF-9B51-75C7738CD713}"/>
+    <cellStyle name="Hyperlink 74" xfId="85" hidden="1" xr:uid="{49B0558D-0902-492F-9653-88597B3AA32D}"/>
+    <cellStyle name="Hyperlink 74" xfId="200" xr:uid="{B98C0754-D675-48A3-AEE3-3AEC4E053451}"/>
+    <cellStyle name="Hyperlink 75" xfId="86" hidden="1" xr:uid="{A4233C09-818E-48D1-A408-D00A75E6E6AF}"/>
+    <cellStyle name="Hyperlink 75" xfId="201" xr:uid="{1F609D06-81CD-42CA-BD82-95CEA806B4B0}"/>
+    <cellStyle name="Hyperlink 76" xfId="87" hidden="1" xr:uid="{14CE572A-B0E9-4437-ADA8-7F328B769835}"/>
+    <cellStyle name="Hyperlink 76" xfId="202" xr:uid="{FB3E740C-A201-4B7D-95D8-AA3B8A2B0724}"/>
+    <cellStyle name="Hyperlink 77" xfId="88" hidden="1" xr:uid="{DFE6C67C-1992-41AD-B54C-81D860E7967B}"/>
+    <cellStyle name="Hyperlink 77" xfId="203" xr:uid="{F544CFAC-E65D-49EA-8A4C-4622A757C677}"/>
+    <cellStyle name="Hyperlink 78" xfId="89" hidden="1" xr:uid="{13681F85-D9FB-4214-AC6C-8CAE550B0AB6}"/>
+    <cellStyle name="Hyperlink 78" xfId="204" xr:uid="{4EF2F127-2BD5-4837-85D5-E7072BD33C18}"/>
+    <cellStyle name="Hyperlink 79" xfId="90" hidden="1" xr:uid="{FE8C9743-8891-4A31-9238-85FCE0ECA57A}"/>
+    <cellStyle name="Hyperlink 79" xfId="205" xr:uid="{30087ED8-CDE8-48F6-A711-EC7FF1BA1131}"/>
+    <cellStyle name="Hyperlink 8" xfId="19" hidden="1" xr:uid="{A224EA96-D562-492E-BCCE-4EB87372B395}"/>
+    <cellStyle name="Hyperlink 8" xfId="178" xr:uid="{5918DF87-2115-4187-94FC-0362DAFD7206}"/>
+    <cellStyle name="Hyperlink 80" xfId="91" hidden="1" xr:uid="{534F0812-0C00-4A3C-AE3D-2167E822028F}"/>
+    <cellStyle name="Hyperlink 80" xfId="206" xr:uid="{FF876F4F-64AB-4E3A-A65C-0A23CA6DAB18}"/>
+    <cellStyle name="Hyperlink 81" xfId="92" hidden="1" xr:uid="{8512EBE6-B7A1-4494-BC89-2E310918DD4F}"/>
+    <cellStyle name="Hyperlink 81" xfId="207" xr:uid="{E4784CB3-D592-46FC-8F72-C2B322DFA942}"/>
+    <cellStyle name="Hyperlink 82" xfId="93" hidden="1" xr:uid="{6AB6F2B2-305E-4848-87A6-F12CC30DFE2B}"/>
+    <cellStyle name="Hyperlink 82" xfId="208" xr:uid="{2D2DFD06-E8D4-4A74-B270-D3D73C1C2D9A}"/>
+    <cellStyle name="Hyperlink 83" xfId="94" hidden="1" xr:uid="{BEC0E917-8AF7-425B-AD6B-94E982DF0D4E}"/>
+    <cellStyle name="Hyperlink 83" xfId="209" xr:uid="{FC9CFF46-6F1C-4F41-8159-7E59CF4F52F2}"/>
+    <cellStyle name="Hyperlink 84" xfId="95" hidden="1" xr:uid="{84BDE15D-435E-4F36-ADC5-AFABCBFC75B9}"/>
+    <cellStyle name="Hyperlink 84" xfId="210" xr:uid="{3E00A7AE-1388-4566-A90B-A01F65B5A439}"/>
+    <cellStyle name="Hyperlink 85" xfId="96" hidden="1" xr:uid="{1B27CF07-A0BE-4905-A6E6-79F9CAD54A88}"/>
+    <cellStyle name="Hyperlink 85" xfId="211" xr:uid="{08D6E4F2-DFC3-40D5-B4C4-F14631D1888D}"/>
+    <cellStyle name="Hyperlink 86" xfId="97" hidden="1" xr:uid="{01D0A77A-A23D-4EFF-AA03-B37B29B2220F}"/>
+    <cellStyle name="Hyperlink 86" xfId="212" xr:uid="{B5E98862-0F8A-40C3-A680-F68A51616407}"/>
+    <cellStyle name="Hyperlink 87" xfId="98" hidden="1" xr:uid="{A872AD37-BB5F-4DF8-8B21-7A1E60C8CE76}"/>
+    <cellStyle name="Hyperlink 87" xfId="213" xr:uid="{0C37E3A5-CE4A-491C-8DC8-7702487C749F}"/>
+    <cellStyle name="Hyperlink 88" xfId="99" hidden="1" xr:uid="{02D3C1DD-C3E6-41FC-BDFB-592ADADC98CD}"/>
+    <cellStyle name="Hyperlink 88" xfId="214" xr:uid="{7B31DD79-7381-4861-8858-FCA61491FA84}"/>
+    <cellStyle name="Hyperlink 89" xfId="100" hidden="1" xr:uid="{75F56C61-D1CF-48D6-B632-5AECB13E9EB5}"/>
+    <cellStyle name="Hyperlink 89" xfId="215" xr:uid="{78E30C1A-C87F-4A9E-8E61-46B7292CD78C}"/>
+    <cellStyle name="Hyperlink 9" xfId="20" hidden="1" xr:uid="{44141DF4-6510-4C5D-9051-A36606A028E4}"/>
+    <cellStyle name="Hyperlink 9" xfId="177" xr:uid="{20EBB298-96F9-476C-B277-D8A0395B0CEC}"/>
+    <cellStyle name="Hyperlink 90" xfId="101" hidden="1" xr:uid="{3F932050-2E59-429E-A629-CEFAA85C98B4}"/>
+    <cellStyle name="Hyperlink 90" xfId="216" xr:uid="{1C94B447-57EB-4C17-A43B-4B2C89915F32}"/>
+    <cellStyle name="Hyperlink 91" xfId="102" hidden="1" xr:uid="{808A476D-A44E-48A2-BCDB-A5C978685558}"/>
+    <cellStyle name="Hyperlink 91" xfId="217" xr:uid="{8F96C03A-7DAE-4B8E-9F30-3C0255891E9B}"/>
+    <cellStyle name="Hyperlink 92" xfId="103" hidden="1" xr:uid="{7D2A8773-C0B0-4995-9F45-F532C1A044E7}"/>
+    <cellStyle name="Hyperlink 92" xfId="218" xr:uid="{65BB7D83-4950-4A22-9B98-897E3810F4FB}"/>
+    <cellStyle name="Hyperlink 93" xfId="104" hidden="1" xr:uid="{6571FF1F-AE00-4E56-81BF-A5C19D9CA688}"/>
+    <cellStyle name="Hyperlink 93" xfId="219" xr:uid="{DBD7B8CA-0F28-46F1-96FE-51C35B7EA8E8}"/>
+    <cellStyle name="Hyperlink 94" xfId="105" hidden="1" xr:uid="{A3F7A14B-E42A-4066-A92E-276117EF3EAA}"/>
+    <cellStyle name="Hyperlink 94" xfId="220" xr:uid="{89BB5D15-EA14-42BE-8920-17966DE31D80}"/>
+    <cellStyle name="Hyperlink 95" xfId="106" hidden="1" xr:uid="{A25EF12A-7677-4B8F-B23D-BA97576DBFD1}"/>
+    <cellStyle name="Hyperlink 95" xfId="221" xr:uid="{BA6310C8-C972-42A5-94E7-6074018A7E1F}"/>
+    <cellStyle name="Hyperlink 96" xfId="107" hidden="1" xr:uid="{AA658421-7393-4151-B06B-533C8D323B96}"/>
+    <cellStyle name="Hyperlink 96" xfId="222" xr:uid="{1D6CB05B-33C7-476E-8D21-2C4E65E47873}"/>
+    <cellStyle name="Hyperlink 97" xfId="108" hidden="1" xr:uid="{F794F711-33C2-4CB2-A5C5-1BE467F461F0}"/>
+    <cellStyle name="Hyperlink 97" xfId="223" xr:uid="{91848A89-1496-4431-821B-11D6AD741891}"/>
+    <cellStyle name="Hyperlink 98" xfId="109" hidden="1" xr:uid="{98409E74-BD1D-43E5-A483-4B7A6E1EDE50}"/>
+    <cellStyle name="Hyperlink 98" xfId="224" xr:uid="{901F25AB-7D90-46DF-90CA-3250778F2AFA}"/>
+    <cellStyle name="Hyperlink 99" xfId="110" hidden="1" xr:uid="{14AE7D6A-ACC6-4523-B5CC-CA09DF2E0F94}"/>
+    <cellStyle name="Hyperlink 99" xfId="225" xr:uid="{4E4BD2FC-7C7C-49A4-BD08-D96009234E17}"/>
+    <cellStyle name="Input [yellow]" xfId="378" xr:uid="{77DD54B9-ECC2-4712-A642-6D38BCCCE17B}"/>
+    <cellStyle name="Input [yellow] 2" xfId="379" xr:uid="{68FAD74A-2702-46CB-BABF-73F1B068D53E}"/>
+    <cellStyle name="Input [yellow] 3" xfId="380" xr:uid="{A57FE156-5005-47F5-8B58-C4A80D0E8730}"/>
+    <cellStyle name="Input 2" xfId="6" xr:uid="{F20E15C9-8FA0-44E0-BA4A-C0BEB0C745D6}"/>
+    <cellStyle name="ITEMS" xfId="381" xr:uid="{B3CFEB69-E5F6-41F6-95E7-24C98C38D659}"/>
+    <cellStyle name="Linked Cell 2" xfId="254" xr:uid="{5E760A8A-27AB-4ABE-B833-B65C4D648130}"/>
+    <cellStyle name="m1 - Style1" xfId="382" xr:uid="{112A1503-4F46-40B7-848B-F0EA7D95A028}"/>
+    <cellStyle name="MANKAD" xfId="383" xr:uid="{43EB0ECC-4D9C-43A4-B1E8-0759B5A5073B}"/>
+    <cellStyle name="Neutral 2" xfId="251" xr:uid="{FC4C2D12-81AE-4C89-AEB5-2773C31BAA8D}"/>
+    <cellStyle name="Neutrale" xfId="384" xr:uid="{2D10C87D-25F6-4DD6-BE53-E7F1D06E5FA8}"/>
+    <cellStyle name="no dec" xfId="385" xr:uid="{935F7C30-FAA8-4420-9073-254EA1685B84}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal - Style1" xfId="386" xr:uid="{EBE8DEDE-09E4-4F66-B000-AB600658C43F}"/>
+    <cellStyle name="Normal 10" xfId="387" xr:uid="{5C9733DF-C984-494D-AAC5-E915D1676873}"/>
+    <cellStyle name="Normal 11" xfId="316" xr:uid="{44ED6162-FD3B-41A6-A05B-AAA9FA45F3B8}"/>
+    <cellStyle name="Normal 12" xfId="463" xr:uid="{AE3174F3-52D6-4154-970C-41FB72A15EDA}"/>
+    <cellStyle name="Normal 13" xfId="469" xr:uid="{CE975BA1-F21D-46C8-A6A4-EDC06A0C1128}"/>
+    <cellStyle name="Normal 14" xfId="471" xr:uid="{5D72CE39-B375-467F-9395-A1719102137A}"/>
+    <cellStyle name="Normal 14 2" xfId="474" xr:uid="{603DEF26-3CA3-4E44-9712-7314A184DE3A}"/>
+    <cellStyle name="Normal 14 3" xfId="487" xr:uid="{0E599C64-9F0A-4D44-A52A-39723A5D5903}"/>
+    <cellStyle name="Normal 14 3 2" xfId="494" xr:uid="{2E73FAB2-135B-4BB0-A012-5F4E614FBF7E}"/>
+    <cellStyle name="Normal 14 3 2 2" xfId="498" xr:uid="{42E9EC55-342A-442D-9041-16060CCA068B}"/>
+    <cellStyle name="Normal 14 3 2 2 2" xfId="501" xr:uid="{5833F243-84C2-4E4F-BCCC-FC5F22552797}"/>
+    <cellStyle name="Normal 14 4" xfId="489" xr:uid="{ED144DEE-FB8D-44EF-AC74-BB75D69D4490}"/>
+    <cellStyle name="Normal 14 4 2" xfId="491" xr:uid="{DA292D90-7ECD-4B4B-995B-06B75E86C020}"/>
+    <cellStyle name="Normal 14 4 2 2" xfId="495" xr:uid="{3C1552BE-6E33-4329-98A6-3ED53E2A3250}"/>
+    <cellStyle name="Normal 14 4 2 2 2" xfId="499" xr:uid="{E1829237-633A-4D06-AE6D-BFB4ED8941B9}"/>
+    <cellStyle name="Normal 15" xfId="482" xr:uid="{395672FF-11A3-4C99-8B22-D46BD5083808}"/>
+    <cellStyle name="Normal 16" xfId="503" xr:uid="{1C0C2730-60E2-43A4-B5E2-604D3D64D187}"/>
+    <cellStyle name="Normal 17" xfId="504" xr:uid="{54D62E16-EBCD-4586-9A0F-8AD5BAA3B78D}"/>
+    <cellStyle name="Normal 18" xfId="3" xr:uid="{968B1E2E-EC8D-4B44-A5A7-EDC75F16308B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="127" xr:uid="{5281238E-1340-449F-98AB-D7EF3727BD0B}"/>
+    <cellStyle name="Normal 2 2 2" xfId="242" xr:uid="{98902C10-8456-4030-B77D-C28E2C757377}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="389" xr:uid="{0BA9936C-9808-4BE3-939D-C853E324E8E5}"/>
+    <cellStyle name="Normal 2 2 3" xfId="390" xr:uid="{2DE80F38-EC3B-48C5-95CA-F68A49DD6A88}"/>
+    <cellStyle name="Normal 2 2 4" xfId="388" xr:uid="{7CCD515D-A811-4B2B-9CC8-053454E132F5}"/>
+    <cellStyle name="Normal 2 3" xfId="391" xr:uid="{14DC8D8F-B579-4A48-9142-7266BE1B66CD}"/>
+    <cellStyle name="Normal 3" xfId="125" xr:uid="{8E2482DA-16A3-41B1-91C0-D0E69D9CF4D9}"/>
+    <cellStyle name="Normal 3 2" xfId="241" xr:uid="{9FF501CA-E7BD-4267-8115-0F6A6C1C52DF}"/>
+    <cellStyle name="Normal 3 2 2" xfId="393" xr:uid="{6A377757-86CC-4632-B669-E28DA5C7E7A6}"/>
+    <cellStyle name="Normal 3 3" xfId="394" xr:uid="{CBBDB36C-149A-4E4F-929D-BEA914B6F5E8}"/>
+    <cellStyle name="Normal 3 4" xfId="392" xr:uid="{C380539C-5020-4F58-A502-89A43D4F73A7}"/>
+    <cellStyle name="Normal 4" xfId="280" xr:uid="{D18B9821-6BB6-4D5D-9E77-2E681713CC46}"/>
+    <cellStyle name="Normal 4 2" xfId="396" xr:uid="{5743DD04-7544-4D4C-8E87-E98E5507390A}"/>
+    <cellStyle name="Normal 4 3" xfId="395" xr:uid="{3EC45402-850C-4AA1-B84C-ABAAE181EAEC}"/>
+    <cellStyle name="Normal 5" xfId="284" xr:uid="{D4ED9182-4A65-4F1E-AB21-41E18103BB8A}"/>
+    <cellStyle name="Normal 5 2" xfId="397" xr:uid="{E94C5D2B-155B-4EBB-B744-5FA55FA3F74D}"/>
+    <cellStyle name="Normal 6" xfId="298" xr:uid="{512B398C-72FA-4F8E-BE16-3C813C54F6FF}"/>
+    <cellStyle name="Normal 6 2" xfId="398" xr:uid="{C4B45B55-A1B0-4C6C-BF3C-3DF1F8993FB0}"/>
+    <cellStyle name="Normal 7" xfId="312" xr:uid="{EA003665-66F0-4242-9B9F-B20C05ABD4B5}"/>
+    <cellStyle name="Normal 7 2" xfId="314" xr:uid="{B3E94A5C-7DB7-4036-875E-DCE28BA52834}"/>
+    <cellStyle name="Normal 7 3" xfId="399" xr:uid="{9167CC52-8D2F-4814-9CCF-2CCC7EA03754}"/>
+    <cellStyle name="Normal 7 3 2" xfId="461" xr:uid="{1CC4E314-CF83-4D97-A407-AAA80BBC3066}"/>
+    <cellStyle name="Normal 7 3 2 2" xfId="467" xr:uid="{C2EB8790-C89D-415A-8F88-B7F4CB952EFB}"/>
+    <cellStyle name="Normal 8" xfId="400" xr:uid="{7D1FC360-9B91-4E5B-9046-AFF26F22A621}"/>
+    <cellStyle name="Normal 8 2" xfId="401" xr:uid="{A757DD3F-BD30-4304-845E-8BDA81AC845E}"/>
+    <cellStyle name="Normal 8 2 2" xfId="457" xr:uid="{DBC980DC-ACA2-4962-96FC-776059D6AF09}"/>
+    <cellStyle name="Normal 8 3" xfId="458" xr:uid="{7136320D-F715-42AA-9CFB-850FCD4D1F14}"/>
+    <cellStyle name="Normal 8 3 2" xfId="485" xr:uid="{84480704-182A-4579-8184-67B7C7665257}"/>
+    <cellStyle name="Normal 8 3 2 2" xfId="502" xr:uid="{D53B573F-69F2-488E-B09A-DDF062CACACD}"/>
+    <cellStyle name="Normal 9" xfId="402" xr:uid="{F506DDDF-A306-4438-A8F8-9FF3AAE94B50}"/>
+    <cellStyle name="Normal 9 2" xfId="455" xr:uid="{AFB3E35C-EC23-4E3F-8957-63B80EB76BC4}"/>
+    <cellStyle name="Normal 9 3" xfId="462" xr:uid="{BB7FE532-687A-48B2-B6E7-82FC11250BF9}"/>
+    <cellStyle name="Normal 9 4" xfId="465" xr:uid="{635FCA43-43AB-4521-9646-DB8874FF9230}"/>
+    <cellStyle name="Normal 9 5" xfId="466" xr:uid="{7F467FC8-7975-4C99-AEF0-552D304E91B5}"/>
+    <cellStyle name="Normal 9 6" xfId="468" xr:uid="{4AD7C183-6072-4595-84A3-5A9BD497F7F6}"/>
+    <cellStyle name="Normal 9 6 2" xfId="486" xr:uid="{D795FCCD-C897-4ABD-8F8D-52BBEDABA00D}"/>
+    <cellStyle name="Normal 9 6 2 2" xfId="505" xr:uid="{1C0D71D6-97E9-463E-AA6C-D5EA6499A445}"/>
+    <cellStyle name="Nota" xfId="403" xr:uid="{4A4D463F-02D0-4AC2-9344-E047CB8E313A}"/>
+    <cellStyle name="Nota 2" xfId="404" xr:uid="{0DCF3F59-CC23-49C8-A7DB-5048A7E34CD9}"/>
+    <cellStyle name="Nota 3" xfId="405" xr:uid="{CFEE5AF0-3CC8-4654-8E5B-336FD0B76D7B}"/>
+    <cellStyle name="Note 2" xfId="281" xr:uid="{9408D65C-EB2E-4BDC-B5F2-EC3F3662010B}"/>
+    <cellStyle name="Note 3" xfId="285" xr:uid="{F26B671B-D8DF-475F-9F0E-08309DAAA703}"/>
+    <cellStyle name="Note 4" xfId="299" xr:uid="{7B15D9E9-D19C-4874-8666-565F962AF71D}"/>
+    <cellStyle name="Num0 - Style7" xfId="406" xr:uid="{55689067-DD9B-4348-9B66-EA2954DBAC37}"/>
+    <cellStyle name="Num2 - Style8" xfId="407" xr:uid="{7FBE2928-CC9C-4908-A5D0-749CD324BD12}"/>
+    <cellStyle name="Numeri - Style1" xfId="408" xr:uid="{15E7C444-D4EE-4A5F-A837-E8E0CBA1EDDA}"/>
+    <cellStyle name="Numeri - Style1 2" xfId="409" xr:uid="{B0A91B42-ADDA-4510-947A-BD9AA303F878}"/>
+    <cellStyle name="ofwhich" xfId="7" xr:uid="{1024E031-9181-417E-8540-8211A93474D9}"/>
+    <cellStyle name="Output 2" xfId="252" xr:uid="{25BB7566-E533-4B75-8CF3-DA3732092BED}"/>
+    <cellStyle name="Percent [2]" xfId="410" xr:uid="{08A06402-FE99-4C30-8F97-A7A3400B1FCA}"/>
+    <cellStyle name="Percent 2" xfId="9" xr:uid="{697E0310-C637-4E7C-A8CF-7F663B7740B9}"/>
+    <cellStyle name="Percent 2 2" xfId="320" xr:uid="{F96A289E-6B56-4EA2-BCA9-AB4BEE059897}"/>
+    <cellStyle name="Percent 3" xfId="411" xr:uid="{C9C93280-205D-4051-BAC3-2E417121D0DA}"/>
+    <cellStyle name="Percent 3 2" xfId="412" xr:uid="{ADF42437-2460-4FC4-966A-8815C15F8559}"/>
+    <cellStyle name="Percent 3 3" xfId="413" xr:uid="{9640FA11-404D-4D52-BBBB-5DFD9BF194E4}"/>
+    <cellStyle name="Percent 3 4" xfId="460" xr:uid="{46D5B196-6B3F-439F-A9DA-B6024CC2F978}"/>
+    <cellStyle name="Percent 4" xfId="414" xr:uid="{FB948709-944B-4F73-A374-EA5E302B6EE2}"/>
+    <cellStyle name="Percent 4 2" xfId="415" xr:uid="{C9647AAA-778D-4262-A110-D47701A8D37D}"/>
+    <cellStyle name="Percent 5" xfId="416" xr:uid="{4581A6D1-61A6-47C4-80C3-68BDFB891418}"/>
+    <cellStyle name="Percent 6" xfId="318" xr:uid="{5EF9E548-C2A9-4DF4-BAA4-CA8A2AF0AECA}"/>
+    <cellStyle name="Percent 7" xfId="464" xr:uid="{D5D16D03-31E3-47F7-841D-2FF7DB1A59CE}"/>
+    <cellStyle name="Percent 8" xfId="479" xr:uid="{CF61BF26-21D6-4DDF-8CBB-36AE28A8F43E}"/>
+    <cellStyle name="Percent 8 2" xfId="488" xr:uid="{03EC4FE0-7E06-4BD8-8BA5-5F6A3E9DFF98}"/>
+    <cellStyle name="Percent 8 3" xfId="490" xr:uid="{0A345833-44AF-4D7E-9755-EF2A66DE55DE}"/>
+    <cellStyle name="Percent 8 3 2" xfId="493" xr:uid="{BD62765B-ED65-4A42-B3C4-BFEA2779DC04}"/>
+    <cellStyle name="Percent 8 3 2 2" xfId="497" xr:uid="{287093C3-5CF2-44FC-8B70-6D0316831DB3}"/>
+    <cellStyle name="Percent 8 3 2 2 2" xfId="500" xr:uid="{8F467562-61AE-4DE8-A83E-9494262F9040}"/>
+    <cellStyle name="Percent 9" xfId="4" xr:uid="{78F167BE-C934-4B41-AB9C-245F01906513}"/>
+    <cellStyle name="RevList" xfId="417" xr:uid="{03491182-B772-477F-9F77-C6A9045E816D}"/>
+    <cellStyle name="Row headings" xfId="418" xr:uid="{AECF6C72-A927-4833-8554-83DDE0599FB2}"/>
+    <cellStyle name="Row headings Level 1" xfId="419" xr:uid="{168478A1-EA6F-444F-AD94-A162E8F01168}"/>
+    <cellStyle name="Row headings Level 2" xfId="420" xr:uid="{A5A46205-3863-4940-BA1C-96A0D4B37B7D}"/>
+    <cellStyle name="Source - Style2" xfId="421" xr:uid="{DD51E5BE-7EBF-4799-B711-85B3A333662B}"/>
+    <cellStyle name="Sources list" xfId="422" xr:uid="{8D16579A-C247-4EC3-8D95-B9F5139D5D9A}"/>
+    <cellStyle name="Sources list 2" xfId="423" xr:uid="{B45F0A0D-C049-4AB9-9F7A-486C51548368}"/>
+    <cellStyle name="Sources Title" xfId="424" xr:uid="{44220F53-545A-44E2-AC50-CB60C2260676}"/>
+    <cellStyle name="Sources Title 2" xfId="425" xr:uid="{3F18194F-75C8-4287-B83A-6939FBEEB740}"/>
+    <cellStyle name="style" xfId="426" xr:uid="{3ABF1FB2-F112-4476-ABDC-1011FB477C5D}"/>
+    <cellStyle name="style 2" xfId="427" xr:uid="{3C2C8D89-B195-45F2-A163-2513849C15CB}"/>
+    <cellStyle name="style 3" xfId="428" xr:uid="{551D3E38-0E52-48D1-ABEE-30B448A1ECDA}"/>
+    <cellStyle name="style1" xfId="429" xr:uid="{9287CF80-81D0-4AD1-910F-608196169C01}"/>
+    <cellStyle name="style2" xfId="430" xr:uid="{F5CC04B6-4C8B-41C4-993F-609B20B442F0}"/>
+    <cellStyle name="Subtotal" xfId="431" xr:uid="{E0ED5AF4-7A1B-433D-A62F-AD4B05CB3AA8}"/>
+    <cellStyle name="Table  - Style3" xfId="432" xr:uid="{F296F428-291A-419B-99A6-08DA610F6567}"/>
+    <cellStyle name="Table  - Style4" xfId="433" xr:uid="{E71EAA59-09C1-465F-AFA4-CE79FD484D12}"/>
+    <cellStyle name="Table  - Style4 2" xfId="434" xr:uid="{E636291E-7AE8-41CD-A27D-3B05967BBCF9}"/>
+    <cellStyle name="Table  - Style6" xfId="435" xr:uid="{44CF0309-084B-40CE-AB45-8B7AE9F742DC}"/>
+    <cellStyle name="Table  - Style6 2" xfId="436" xr:uid="{F780DEFE-7AB7-40F3-AD08-86C617DDE775}"/>
+    <cellStyle name="Table no" xfId="437" xr:uid="{1B9362FA-F2DD-48B6-8CCC-E996CF90FB6D}"/>
+    <cellStyle name="Table_HeaderRow" xfId="8" xr:uid="{53EB5C31-62B2-4B35-BDED-A21D143C1876}"/>
+    <cellStyle name="Testo avviso" xfId="438" xr:uid="{0E616592-8D9A-4D76-AF1F-5B9D11E252BB}"/>
+    <cellStyle name="Testo descrittivo" xfId="439" xr:uid="{A6648A0F-F4F3-4EA9-B36D-BDD51FC6169A}"/>
+    <cellStyle name="þ_x001d_ð &amp;ý&amp;†ýG_x0008_ X_x000a__x0007__x0001__x0001_" xfId="440" xr:uid="{42D9DAFE-5C38-4867-917B-702B9A60DD31}"/>
+    <cellStyle name="þ_x001d_ð&quot;_x000c_Býò_x000c_5ýU_x0001_e_x0005_¹,_x0007__x0001__x0001_" xfId="441" xr:uid="{A439AC2D-721D-4C20-AB25-958745B6D270}"/>
+    <cellStyle name="Title 2" xfId="245" xr:uid="{654DC527-3360-45A0-B8BA-3923D9D71853}"/>
+    <cellStyle name="Titolo" xfId="442" xr:uid="{A2E5DF1F-514D-415C-A7A1-C61F357B926D}"/>
+    <cellStyle name="Titolo 1" xfId="443" xr:uid="{261ACCFA-834B-479D-BF42-4CAADBA014F2}"/>
+    <cellStyle name="Titolo 2" xfId="444" xr:uid="{6CDB4997-9835-4001-8FE8-8CD12F8B9455}"/>
+    <cellStyle name="Titolo 3" xfId="445" xr:uid="{EE62F1C6-6F14-4A0E-8D20-958F17770143}"/>
+    <cellStyle name="Titolo 4" xfId="446" xr:uid="{1D0C6BE8-DA1E-4CA5-8ACB-669D9DBFBC03}"/>
+    <cellStyle name="Total 2" xfId="258" xr:uid="{69D3A543-8767-48B1-9A1C-6727ED5B7339}"/>
+    <cellStyle name="Totale" xfId="447" xr:uid="{49E82C4B-1C23-40C9-9234-425FAD589B4B}"/>
+    <cellStyle name="Totale 2" xfId="448" xr:uid="{1928D065-33F3-4A72-B701-693BCEF65487}"/>
+    <cellStyle name="Totale 3" xfId="449" xr:uid="{E84D43E1-7247-4D03-BF4E-1ECD1C054A30}"/>
+    <cellStyle name="Valore non valido" xfId="450" xr:uid="{00076FD1-05EE-4774-A470-3A9E455B279E}"/>
+    <cellStyle name="Valore valido" xfId="451" xr:uid="{BFBE83A5-38A7-4F10-9624-C0C42ACA8864}"/>
+    <cellStyle name="Warning Text 2" xfId="256" xr:uid="{61D6D1DD-E546-4D42-99FE-033CE3F2A471}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="1" tint="4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="EnergyCalcTables" pivot="0" count="4" xr9:uid="{4E7D0F1E-84B4-4697-A9B6-11342F34EE1F}">
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="totalRow" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="EnergyCalcTables 2" pivot="0" count="0" xr9:uid="{4585F7C8-3F4D-4310-A2DD-0F2B30AA018C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2642,7 +4822,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2674,7 +4853,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2682,6 +4860,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3761,25 +5940,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="82.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3790,7 +5969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>85</v>
       </c>
@@ -3798,18 +5977,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
@@ -3817,7 +5996,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -3825,12 +6004,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="D9" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -3838,7 +6017,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="B11" s="4" t="s">
         <v>86</v>
       </c>
@@ -3846,7 +6025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -3854,30 +6033,30 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="D13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="B15" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
@@ -3885,7 +6064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -3893,7 +6072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4">
       <c r="B20" s="3">
         <v>2017</v>
       </c>
@@ -3901,7 +6080,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -3909,7 +6088,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -3917,7 +6096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -3925,17 +6104,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4">
       <c r="D24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
@@ -3943,7 +6122,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4">
       <c r="B27" s="3">
         <v>2015</v>
       </c>
@@ -3951,7 +6130,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4">
       <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
@@ -3959,7 +6138,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4">
       <c r="B29" s="16" t="s">
         <v>61</v>
       </c>
@@ -3967,7 +6146,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -3975,7 +6154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>64</v>
       </c>
@@ -3983,166 +6162,166 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4">
       <c r="D32" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="D33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="D36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="D37" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="D38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="D39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="29">
       <c r="A40" s="1"/>
       <c r="D40" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4150,21 +6329,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="29">
       <c r="B1" t="s">
         <v>35</v>
       </c>
@@ -4193,7 +6372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -4201,32 +6380,32 @@
         <f>'MoP - Thermal PLFs'!A2/100</f>
         <v>0.57899999999999996</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="45">
         <v>0.75</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="45">
         <v>0.75</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="45">
         <v>0.75</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="45">
         <v>0.75</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="45">
         <v>0.76</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="45">
         <v>0.76</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="45">
         <v>0.76</v>
       </c>
       <c r="J2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4234,32 +6413,32 @@
         <f>23.31/100</f>
         <v>0.23309999999999997</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="44">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="44">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="44">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="44">
         <v>0.45</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="44">
         <v>0.45</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="44">
         <v>0.45</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="44">
         <v>0.45</v>
       </c>
       <c r="J3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4292,7 +6471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -4325,7 +6504,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -4358,7 +6537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4390,7 +6569,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -4425,7 +6604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4458,7 +6637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4495,7 +6674,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -4532,7 +6711,7 @@
         <v>0.22689835106537268</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4545,7 +6724,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -4558,7 +6737,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4598,7 +6777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -4631,17 +6810,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -4653,19 +6832,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="15" max="15" width="10.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -4673,7 +6852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2">
         <v>57.9</v>
       </c>
@@ -4684,17 +6863,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="L3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>56.95</v>
       </c>
@@ -4702,51 +6881,51 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="L16" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="16:16">
       <c r="P24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="16:16">
       <c r="P25" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="16:16">
       <c r="P34" s="4" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P34" r:id="rId1"/>
-    <hyperlink ref="P25" r:id="rId2"/>
-    <hyperlink ref="L16" r:id="rId3"/>
+    <hyperlink ref="P34" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="P25" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="L16" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -4755,41 +6934,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="9" width="17.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="5"/>
+    <col min="1" max="9" width="17.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.08984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="38"/>
@@ -4798,54 +6977,54 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
-      <c r="Q2" s="37"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q2" s="39"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="36" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="36" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="37"/>
-    </row>
-    <row r="4" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="39.5">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -4898,28 +7077,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="12">
         <v>2009</v>
       </c>
@@ -4972,7 +7151,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17">
       <c r="A7" s="12">
         <v>2010</v>
       </c>
@@ -5025,7 +7204,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17">
       <c r="A8" s="12">
         <v>2011</v>
       </c>
@@ -5078,7 +7257,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17">
       <c r="A9" s="12">
         <v>2012</v>
       </c>
@@ -5131,7 +7310,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17">
       <c r="A10" s="12">
         <v>2013</v>
       </c>
@@ -5184,7 +7363,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17">
       <c r="A11" s="12">
         <v>2014</v>
       </c>
@@ -5237,7 +7416,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17">
       <c r="A12" s="12">
         <v>2015</v>
       </c>
@@ -5290,7 +7469,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17">
       <c r="A13" s="12">
         <v>2016</v>
       </c>
@@ -5343,7 +7522,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17">
       <c r="A14" s="12">
         <v>2017</v>
       </c>
@@ -5396,7 +7575,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17">
       <c r="A15" s="12">
         <v>2018</v>
       </c>
@@ -5449,28 +7628,28 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:17">
+      <c r="A16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="12" t="s">
         <v>7</v>
       </c>
@@ -5523,7 +7702,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17">
       <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
@@ -5576,7 +7755,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17">
       <c r="A19" s="12" t="s">
         <v>9</v>
       </c>
@@ -5629,7 +7808,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17">
       <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
@@ -5682,7 +7861,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17">
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
@@ -5735,7 +7914,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -5788,7 +7967,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17">
       <c r="A23" s="12" t="s">
         <v>13</v>
       </c>
@@ -5841,7 +8020,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17">
       <c r="A24" s="12" t="s">
         <v>14</v>
       </c>
@@ -5894,7 +8073,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17">
       <c r="A25" s="12" t="s">
         <v>29</v>
       </c>
@@ -5947,7 +8126,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17">
       <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
@@ -6000,7 +8179,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
@@ -6053,7 +8232,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17">
       <c r="A28" s="12" t="s">
         <v>17</v>
       </c>
@@ -6106,28 +8285,28 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:17">
+      <c r="A29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
@@ -6180,7 +8359,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17">
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
@@ -6233,7 +8412,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17">
       <c r="A32" s="12" t="s">
         <v>9</v>
       </c>
@@ -6286,7 +8465,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17">
       <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
@@ -6339,7 +8518,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +8571,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17">
       <c r="A35" s="12" t="s">
         <v>12</v>
       </c>
@@ -6445,7 +8624,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17">
       <c r="A36" s="12" t="s">
         <v>13</v>
       </c>
@@ -6498,7 +8677,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17">
       <c r="A37" s="12" t="s">
         <v>14</v>
       </c>
@@ -6551,7 +8730,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17">
       <c r="A38" s="12" t="s">
         <v>29</v>
       </c>
@@ -6604,7 +8783,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17">
       <c r="A39" s="12" t="s">
         <v>15</v>
       </c>
@@ -6657,7 +8836,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17">
       <c r="A40" s="12" t="s">
         <v>16</v>
       </c>
@@ -6710,7 +8889,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17">
       <c r="A41" s="12" t="s">
         <v>17</v>
       </c>
@@ -6763,28 +8942,28 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A42" s="39" t="s">
+    <row r="42" spans="1:17">
+      <c r="A42" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
@@ -6837,7 +9016,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17">
       <c r="A44" s="12" t="s">
         <v>8</v>
       </c>
@@ -6890,7 +9069,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17">
       <c r="A45" s="12" t="s">
         <v>9</v>
       </c>
@@ -6943,7 +9122,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17">
       <c r="A46" s="12" t="s">
         <v>10</v>
       </c>
@@ -6996,7 +9175,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17">
       <c r="A47" s="12" t="s">
         <v>11</v>
       </c>
@@ -7049,7 +9228,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17">
       <c r="A48" s="12" t="s">
         <v>12</v>
       </c>
@@ -7102,7 +9281,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17">
       <c r="A49" s="12" t="s">
         <v>13</v>
       </c>
@@ -7155,7 +9334,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17">
       <c r="A50" s="12" t="s">
         <v>14</v>
       </c>
@@ -7208,29 +9387,34 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A51" s="40" t="s">
+    <row r="51" spans="1:17">
+      <c r="A51" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A42:Q42"/>
     <mergeCell ref="A51:Q51"/>
     <mergeCell ref="L2:Q2"/>
@@ -7243,33 +9427,28 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>152</v>
       </c>
@@ -7279,7 +9458,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="B2">
         <v>2013</v>
       </c>
@@ -7293,7 +9472,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -7310,7 +9489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="B4">
         <v>2</v>
       </c>
@@ -7324,7 +9503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>13</v>
       </c>
@@ -7338,7 +9517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>8</v>
       </c>
@@ -7352,7 +9531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>20</v>
       </c>
@@ -7366,7 +9545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>31</v>
       </c>
@@ -7380,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="B9">
         <v>18</v>
       </c>
@@ -7394,7 +9573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="B10">
         <v>22</v>
       </c>
@@ -7408,7 +9587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="B11">
         <v>18</v>
       </c>
@@ -7422,7 +9601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="B12">
         <v>27</v>
       </c>
@@ -7436,7 +9615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="B13">
         <v>21</v>
       </c>
@@ -7450,7 +9629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="B14">
         <v>41</v>
       </c>
@@ -7464,7 +9643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -7486,7 +9665,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -7496,7 +9675,7 @@
       </c>
       <c r="C16" s="32"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>168</v>
       </c>
@@ -7508,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="43.5">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -7522,7 +9701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11">
       <c r="B21">
         <v>4785.6000000000004</v>
       </c>
@@ -7539,7 +9718,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11">
       <c r="B22">
         <f>B21*10^3</f>
         <v>4785600</v>
@@ -7555,7 +9734,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -7564,7 +9743,7 @@
         <v>22.689835106537267</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -7572,14 +9751,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11">
       <c r="B26" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7588,26 +9767,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD22" sqref="AD22:AU22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
-    <col min="12" max="12" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.73046875" customWidth="1"/>
+    <col min="23" max="23" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:47" ht="15" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>83</v>
       </c>
@@ -7631,7 +9810,7 @@
       <c r="R1" s="42"/>
       <c r="S1" s="43"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -7660,7 +9839,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:47">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7669,7 +9848,7 @@
         <v>57.9</v>
       </c>
       <c r="C3">
-        <f>B3/100</f>
+        <f t="shared" ref="C3:C34" si="0">B3/100</f>
         <v>0.57899999999999996</v>
       </c>
       <c r="D3" t="s">
@@ -7690,19 +9869,19 @@
         <v>80</v>
       </c>
       <c r="Q3" s="23">
-        <f>M3/100</f>
+        <f t="shared" ref="Q3:Q14" si="1">M3/100</f>
         <v>0.64599999999999991</v>
       </c>
       <c r="R3" s="24">
-        <f t="shared" ref="R3:S14" si="0">N3/100</f>
+        <f t="shared" ref="R3:S14" si="2">N3/100</f>
         <v>0.8</v>
       </c>
       <c r="S3" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:47">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7711,7 +9890,7 @@
         <v>57.43333333333328</v>
       </c>
       <c r="C4">
-        <f>B4/100</f>
+        <f t="shared" si="0"/>
         <v>0.57433333333333281</v>
       </c>
       <c r="D4">
@@ -7736,15 +9915,15 @@
         <v>40</v>
       </c>
       <c r="Q4" s="23">
-        <f>M4/100</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="R4" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="S4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="T4">
@@ -7763,9 +9942,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:47">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" ref="A5:A34" si="3">A4+1</f>
         <v>2021</v>
       </c>
       <c r="B5">
@@ -7773,7 +9952,7 @@
         <v>56.966666666666697</v>
       </c>
       <c r="C5">
-        <f>B5/100</f>
+        <f t="shared" si="0"/>
         <v>0.56966666666666699</v>
       </c>
       <c r="D5">
@@ -7798,15 +9977,15 @@
         <v>46.5</v>
       </c>
       <c r="Q5" s="23">
-        <f>M5/100</f>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="R5" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.44500000000000001</v>
       </c>
       <c r="S5" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="T5" s="6">
@@ -7819,9 +9998,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:47">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
       <c r="B6">
@@ -7829,7 +10008,7 @@
         <v>56.5</v>
       </c>
       <c r="C6">
-        <f>B6/100</f>
+        <f t="shared" si="0"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="D6">
@@ -7852,12 +10031,12 @@
         <v>44</v>
       </c>
       <c r="Q6" s="23">
-        <f>M6/100</f>
+        <f t="shared" si="1"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
       <c r="T6">
@@ -7869,9 +10048,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
       <c r="B7">
@@ -7879,7 +10058,7 @@
         <v>57.299999999999955</v>
       </c>
       <c r="C7">
-        <f>B7/100</f>
+        <f t="shared" si="0"/>
         <v>0.57299999999999951</v>
       </c>
       <c r="D7">
@@ -7903,21 +10082,21 @@
         <v>24</v>
       </c>
       <c r="Q7" s="23">
-        <f>M7/100</f>
+        <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
       <c r="R7" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="S7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:47">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="3"/>
         <v>2024</v>
       </c>
       <c r="B8">
@@ -7925,7 +10104,7 @@
         <v>58.099999999999909</v>
       </c>
       <c r="C8">
-        <f>B8/100</f>
+        <f t="shared" si="0"/>
         <v>0.58099999999999907</v>
       </c>
       <c r="D8">
@@ -7949,21 +10128,21 @@
         <v>46</v>
       </c>
       <c r="Q8" s="23">
-        <f>M8/100</f>
+        <f t="shared" si="1"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="R8" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.46</v>
       </c>
       <c r="S8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.46</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:47">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
       <c r="B9">
@@ -7971,7 +10150,7 @@
         <v>58.899999999999864</v>
       </c>
       <c r="C9">
-        <f>B9/100</f>
+        <f t="shared" si="0"/>
         <v>0.58899999999999864</v>
       </c>
       <c r="D9">
@@ -7995,21 +10174,21 @@
         <v>30</v>
       </c>
       <c r="Q9" s="23">
-        <f>M9/100</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="R9" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="S9" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:47">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="3"/>
         <v>2026</v>
       </c>
       <c r="B10">
@@ -8017,7 +10196,7 @@
         <v>59.700000000000045</v>
       </c>
       <c r="C10">
-        <f>B10/100</f>
+        <f t="shared" si="0"/>
         <v>0.59700000000000042</v>
       </c>
       <c r="D10">
@@ -8042,21 +10221,21 @@
         <v>22.689835106537267</v>
       </c>
       <c r="Q10" s="23">
-        <f>M10/100</f>
+        <f t="shared" si="1"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="S10" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22689835106537268</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:47">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="3"/>
         <v>2027</v>
       </c>
       <c r="B11">
@@ -8064,7 +10243,7 @@
         <v>60.5</v>
       </c>
       <c r="C11">
-        <f>B11/100</f>
+        <f t="shared" si="0"/>
         <v>0.60499999999999998</v>
       </c>
       <c r="L11" t="s">
@@ -8083,21 +10262,21 @@
         <v>39</v>
       </c>
       <c r="Q11" s="23">
-        <f>M11/100</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="R11" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="S11" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:47">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="3"/>
         <v>2028</v>
       </c>
       <c r="B12">
@@ -8105,7 +10284,7 @@
         <v>63.399999999999636</v>
       </c>
       <c r="C12">
-        <f>B12/100</f>
+        <f t="shared" si="0"/>
         <v>0.63399999999999634</v>
       </c>
       <c r="L12" t="s">
@@ -8124,21 +10303,21 @@
         <v>76</v>
       </c>
       <c r="Q12" s="23">
-        <f>M12/100</f>
+        <f t="shared" si="1"/>
         <v>0.57899999999999996</v>
       </c>
       <c r="R12" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="S12" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:47">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="3"/>
         <v>2029</v>
       </c>
       <c r="B13">
@@ -8146,7 +10325,7 @@
         <v>66.299999999999272</v>
       </c>
       <c r="C13">
-        <f>B13/100</f>
+        <f t="shared" si="0"/>
         <v>0.66299999999999271</v>
       </c>
       <c r="L13" t="s">
@@ -8165,21 +10344,21 @@
         <v>45</v>
       </c>
       <c r="Q13" s="23">
-        <f>M13/100</f>
+        <f t="shared" si="1"/>
         <v>0.23309999999999997</v>
       </c>
       <c r="R13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
       <c r="S13" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:47" ht="15" thickBot="1">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="3"/>
         <v>2030</v>
       </c>
       <c r="B14">
@@ -8187,7 +10366,7 @@
         <v>69.199999999999818</v>
       </c>
       <c r="C14">
-        <f>B14/100</f>
+        <f t="shared" si="0"/>
         <v>0.69199999999999817</v>
       </c>
       <c r="L14" t="s">
@@ -8206,21 +10385,21 @@
         <v>76</v>
       </c>
       <c r="Q14" s="26">
-        <f>M14/100</f>
+        <f t="shared" si="1"/>
         <v>0.56950000000000001</v>
       </c>
       <c r="R14" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="S14" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:47" ht="15" thickBot="1">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="3"/>
         <v>2031</v>
       </c>
       <c r="B15">
@@ -8228,13 +10407,13 @@
         <v>72.099999999999454</v>
       </c>
       <c r="C15">
-        <f>B15/100</f>
+        <f t="shared" si="0"/>
         <v>0.72099999999999453</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:47" ht="29.5" thickBot="1">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="3"/>
         <v>2032</v>
       </c>
       <c r="B16">
@@ -8242,7 +10421,7 @@
         <v>75</v>
       </c>
       <c r="C16">
-        <f>B16/100</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="L16" s="30" t="s">
@@ -8264,129 +10443,129 @@
         <v>2020</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:AU16" si="1">Q16+1</f>
+        <f t="shared" ref="R16:AU16" si="4">Q16+1</f>
         <v>2021</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2023</v>
       </c>
       <c r="U16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2024</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="W16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2026</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2027</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2029</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2030</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2031</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2032</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2033</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2034</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2035</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2036</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2037</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2038</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2039</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2040</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2041</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2042</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2043</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2044</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2045</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2046</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2047</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2049</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:47">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="3"/>
         <v>2033</v>
       </c>
       <c r="B17">
@@ -8394,14 +10573,14 @@
         <v>75.199999999999989</v>
       </c>
       <c r="C17">
-        <f>B17/100</f>
+        <f t="shared" si="0"/>
         <v>0.75199999999999989</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M24" si="2">P17</f>
+        <f t="shared" ref="M17:M24" si="5">P17</f>
         <v>0.57899999999999996</v>
       </c>
       <c r="N17">
@@ -8509,9 +10688,9 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:47">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="3"/>
         <v>2034</v>
       </c>
       <c r="B18">
@@ -8519,14 +10698,14 @@
         <v>75.399999999999977</v>
       </c>
       <c r="C18">
-        <f>B18/100</f>
+        <f t="shared" si="0"/>
         <v>0.75399999999999978</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23309999999999997</v>
       </c>
       <c r="N18">
@@ -8546,47 +10725,47 @@
         <v>0.24978461538461261</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18:AB18" si="3">FORECAST(R16,$Q$13:$R$13,$Q$2:$R$2)</f>
+        <f t="shared" ref="R18:AB18" si="6">FORECAST(R16,$Q$13:$R$13,$Q$2:$R$2)</f>
         <v>0.26646923076922491</v>
       </c>
       <c r="S18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.28315384615384431</v>
       </c>
       <c r="T18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.29983846153845661</v>
       </c>
       <c r="U18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.31652307692307602</v>
       </c>
       <c r="V18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.33320769230768832</v>
       </c>
       <c r="W18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.34989230769230062</v>
       </c>
       <c r="X18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.36657692307692002</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.38326153846153233</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39994615384615173</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.41663076923076403</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.43331538461538344</v>
       </c>
       <c r="AC18">
@@ -8598,55 +10777,55 @@
         <v>0.45</v>
       </c>
       <c r="AE18">
-        <f t="shared" ref="AE18:AU18" si="4">AD18</f>
+        <f t="shared" ref="AE18:AU18" si="7">AD18</f>
         <v>0.45</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AR18">
@@ -8654,21 +10833,21 @@
         <v>0.45</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:47">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="3"/>
         <v>2035</v>
       </c>
       <c r="B19">
@@ -8676,14 +10855,14 @@
         <v>75.599999999999966</v>
       </c>
       <c r="C19">
-        <f>B19/100</f>
+        <f t="shared" si="0"/>
         <v>0.75599999999999967</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.64599999999999991</v>
       </c>
       <c r="N19">
@@ -8703,47 +10882,47 @@
         <v>0.65784615384615464</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:AB19" si="5">FORECAST(R16,$Q$3:$R$3,$Q$2:$R$2)</f>
+        <f t="shared" ref="R19:AB19" si="8">FORECAST(R16,$Q$3:$R$3,$Q$2:$R$2)</f>
         <v>0.66969230769230847</v>
       </c>
       <c r="S19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.68153846153846231</v>
       </c>
       <c r="T19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.69338461538461615</v>
       </c>
       <c r="U19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.70523076923076999</v>
       </c>
       <c r="V19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.71707692307692383</v>
       </c>
       <c r="W19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.72892307692307767</v>
       </c>
       <c r="X19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.74076923076923151</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.75261538461538535</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.76446153846153919</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.77630769230769303</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.78815384615384687</v>
       </c>
       <c r="AC19">
@@ -8755,55 +10934,55 @@
         <v>0.8</v>
       </c>
       <c r="AE19">
-        <f t="shared" ref="AE19:AQ19" si="6">AD19</f>
+        <f t="shared" ref="AE19:AQ19" si="9">AD19</f>
         <v>0.8</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="AR19">
@@ -8815,17 +10994,17 @@
         <v>0.8</v>
       </c>
       <c r="AT19">
-        <f t="shared" ref="AT19:AU19" si="7">AS19</f>
+        <f t="shared" ref="AT19:AU19" si="10">AS19</f>
         <v>0.8</v>
       </c>
       <c r="AU19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:47">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="3"/>
         <v>2036</v>
       </c>
       <c r="B20">
@@ -8833,14 +11012,14 @@
         <v>75.800000000000011</v>
       </c>
       <c r="C20">
-        <f>B20/100</f>
+        <f t="shared" si="0"/>
         <v>0.75800000000000012</v>
       </c>
       <c r="L20" t="s">
         <v>20</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.39750000000000008</v>
       </c>
       <c r="N20">
@@ -8860,47 +11039,47 @@
         <v>0.39803846153846156</v>
       </c>
       <c r="R20">
-        <f t="shared" ref="R20:AB20" si="8">FORECAST(R16,$T$4:$U$4,$Q$2:$R$2)</f>
+        <f t="shared" ref="R20:AB20" si="11">FORECAST(R16,$T$4:$U$4,$Q$2:$R$2)</f>
         <v>0.39857692307692316</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.39911538461538476</v>
       </c>
       <c r="T20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.39965384615384614</v>
       </c>
       <c r="U20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40019230769230774</v>
       </c>
       <c r="V20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40073076923076933</v>
       </c>
       <c r="W20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40126923076923071</v>
       </c>
       <c r="X20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40180769230769231</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40234615384615391</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40288461538461529</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40342307692307688</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.40396153846153848</v>
       </c>
       <c r="AC20">
@@ -8912,55 +11091,55 @@
         <v>0.40463333333333334</v>
       </c>
       <c r="AE20">
-        <f t="shared" ref="AE20:AQ20" si="9">FORECAST(AE16,$U$4:$V$4,$R$2:$S$2)</f>
+        <f t="shared" ref="AE20:AQ20" si="12">FORECAST(AE16,$U$4:$V$4,$R$2:$S$2)</f>
         <v>0.40476666666666666</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40490000000000004</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40503333333333336</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40516666666666667</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40529999999999999</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40543333333333337</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40556666666666669</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40570000000000001</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40583333333333332</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.4059666666666667</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40610000000000002</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40623333333333334</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40636666666666665</v>
       </c>
       <c r="AR20">
@@ -8972,17 +11151,17 @@
         <v>0.40650000000000003</v>
       </c>
       <c r="AT20">
-        <f t="shared" ref="AT20:AU20" si="10">AS20</f>
+        <f t="shared" ref="AT20:AU20" si="13">AS20</f>
         <v>0.40650000000000003</v>
       </c>
       <c r="AU20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.40650000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:47">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="3"/>
         <v>2037</v>
       </c>
       <c r="B21">
@@ -8990,14 +11169,14 @@
         <v>76</v>
       </c>
       <c r="C21">
-        <f>B21/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L21" t="s">
         <v>33</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="N21">
@@ -9017,107 +11196,107 @@
         <v>0.35803571428571423</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:AQ21" si="11">FORECAST(R16,$T$6:$U$6,$T$5:$U$5)</f>
+        <f t="shared" ref="R21:AQ21" si="14">FORECAST(R16,$T$6:$U$6,$T$5:$U$5)</f>
         <v>0.36107142857142804</v>
       </c>
       <c r="S21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.36410714285714274</v>
       </c>
       <c r="T21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.36714285714285744</v>
       </c>
       <c r="U21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.37017857142857125</v>
       </c>
       <c r="V21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.37321428571428594</v>
       </c>
       <c r="W21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.37624999999999975</v>
       </c>
       <c r="X21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.37928571428571445</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.38232142857142826</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.38535714285714295</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.38839285714285676</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.39142857142857146</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.39446428571428527</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.39749999999999996</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.40053571428571377</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.40357142857142847</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.40660714285714317</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.40964285714285698</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.41267857142857167</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.41571428571428548</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.41875000000000018</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.42178571428571399</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.42482142857142868</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.42785714285714249</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.43089285714285719</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.433928571428571</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.43696428571428569</v>
       </c>
       <c r="AR21">
@@ -9129,25 +11308,25 @@
         <v>0.44</v>
       </c>
       <c r="AT21">
-        <f t="shared" ref="AT21:AU23" si="12">AS21</f>
+        <f t="shared" ref="AT21:AU23" si="15">AS21</f>
         <v>0.44</v>
       </c>
       <c r="AU21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:47">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="3"/>
         <v>2038</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B34" si="13">$B$21</f>
+        <f t="shared" ref="B22:B34" si="16">$B$21</f>
         <v>76</v>
       </c>
       <c r="C22">
-        <f>B22/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L22" t="s">
@@ -9158,11 +11337,11 @@
         <v>0.21</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:O22" si="14">$P$22</f>
+        <f t="shared" ref="N22:O22" si="17">$P$22</f>
         <v>0.21</v>
       </c>
       <c r="O22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.21</v>
       </c>
       <c r="P22">
@@ -9174,51 +11353,51 @@
         <v>0.21230769230769209</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:AD22" si="15">TREND($Q$7:$R$7,$Q$2:$R$2,R16)</f>
+        <f t="shared" ref="R22:AC22" si="18">TREND($Q$7:$R$7,$Q$2:$R$2,R16)</f>
         <v>0.21461538461538421</v>
       </c>
       <c r="S22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.21692307692307722</v>
       </c>
       <c r="T22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.21923076923076934</v>
       </c>
       <c r="U22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.22153846153846146</v>
       </c>
       <c r="V22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.22384615384615358</v>
       </c>
       <c r="W22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.22615384615384571</v>
       </c>
       <c r="X22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.22846153846153872</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.23076923076923084</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.23307692307692296</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.23538461538461508</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.2376923076923072</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.24000000000000021</v>
       </c>
       <c r="AD22">
@@ -9226,92 +11405,92 @@
         <v>0.24</v>
       </c>
       <c r="AE22">
-        <f t="shared" ref="AE22:AU22" si="16">TREND($R$7:$S$7,$R$2:$S$2,AE16)</f>
+        <f t="shared" ref="AE22:AU22" si="19">TREND($R$7:$S$7,$R$2:$S$2,AE16)</f>
         <v>0.24</v>
       </c>
       <c r="AF22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>2039</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AL22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AM22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AQ22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AR22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AS22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="16"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <f>A22+1</f>
-        <v>2039</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="C23">
-        <f>B23/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="N23">
@@ -9331,47 +11510,47 @@
         <v>0.30076923076923379</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:AB23" si="17">FORECAST(R16,$Q$8:$R$8,$Q$2:$R$2)</f>
+        <f t="shared" ref="R23:AB23" si="20">FORECAST(R16,$Q$8:$R$8,$Q$2:$R$2)</f>
         <v>0.3140384615384626</v>
       </c>
       <c r="S23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.32730769230769496</v>
       </c>
       <c r="T23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.34057692307692378</v>
       </c>
       <c r="U23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.35384615384615614</v>
       </c>
       <c r="V23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.36711538461538495</v>
       </c>
       <c r="W23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.38038461538461732</v>
       </c>
       <c r="X23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.39365384615384613</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.4069230769230785</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.42019230769231086</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.43346153846153967</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.44673076923077204</v>
       </c>
       <c r="AC23">
@@ -9383,55 +11562,55 @@
         <v>0.46</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AQ23" si="18">AD23</f>
+        <f t="shared" ref="AE23:AQ23" si="21">AD23</f>
         <v>0.46</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.46</v>
       </c>
       <c r="AR23">
@@ -9443,32 +11622,32 @@
         <v>0.46</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.46</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:47">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
       <c r="B24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C24">
-        <f>B24/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="N24">
@@ -9488,137 +11667,137 @@
         <v>0.3</v>
       </c>
       <c r="R24">
-        <f t="shared" ref="R24:AU24" si="19">Q24</f>
+        <f t="shared" ref="R24:AU24" si="22">Q24</f>
         <v>0.3</v>
       </c>
       <c r="S24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="T24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="U24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="V24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="W24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="X24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:47">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="3"/>
         <v>2041</v>
       </c>
       <c r="B25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C25">
-        <f>B25/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L25" t="s">
@@ -9633,149 +11812,149 @@
         <v>0.22689835106537268</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:AU26" si="20">N25</f>
+        <f t="shared" ref="O25:AU26" si="23">N25</f>
         <v>0.22689835106537268</v>
       </c>
       <c r="P25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="R25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="S25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="T25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="U25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="V25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="W25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="X25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.22689835106537268</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:47">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="3"/>
         <v>2042</v>
       </c>
       <c r="B26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C26">
-        <f>B26/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L26" t="s">
@@ -9790,149 +11969,149 @@
         <v>0.14120000000000002</v>
       </c>
       <c r="O26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="P26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="R26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="S26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="T26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="U26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="V26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="W26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="X26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14120000000000002</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="20"/>
-        <v>0.14120000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.45">
+        <f t="shared" si="23"/>
+        <v>0.14120000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
       <c r="B27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C27">
-        <f>B27/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L27" t="s">
@@ -9947,149 +12126,149 @@
         <v>0.11790000000000003</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:AU27" si="21">N27</f>
+        <f t="shared" ref="O27:AU27" si="24">N27</f>
         <v>0.11790000000000003</v>
       </c>
       <c r="P27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="R27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="S27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="T27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="U27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="V27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="W27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="X27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AQ27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AS27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.11790000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:47">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="3"/>
         <v>2044</v>
       </c>
       <c r="B28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C28">
-        <f>B28/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L28" t="s">
@@ -10116,47 +12295,47 @@
         <v>0.58338461538461317</v>
       </c>
       <c r="R28">
-        <f t="shared" ref="R28:AB28" si="22">FORECAST(R16,$Q$14:$R$14,$Q$2:$R$2)</f>
+        <f t="shared" ref="R28:AB28" si="25">FORECAST(R16,$Q$14:$R$14,$Q$2:$R$2)</f>
         <v>0.59726923076922844</v>
       </c>
       <c r="S28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.61115384615384372</v>
       </c>
       <c r="T28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.62503846153845899</v>
       </c>
       <c r="U28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.63892307692307426</v>
       </c>
       <c r="V28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.65280769230768954</v>
       </c>
       <c r="W28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.66669230769230481</v>
       </c>
       <c r="X28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.68057692307692008</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.69446153846153535</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.70834615384615063</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.7222307692307659</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.73611538461538117</v>
       </c>
       <c r="AC28">
@@ -10168,55 +12347,55 @@
         <v>0.7506666666666667</v>
       </c>
       <c r="AE28">
-        <f t="shared" ref="AE28:AQ28" si="23">FORECAST(AE16,$R$14:$S$14,$R$2:$S$2)</f>
+        <f t="shared" ref="AE28:AQ28" si="26">FORECAST(AE16,$R$14:$S$14,$R$2:$S$2)</f>
         <v>0.7513333333333333</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75200000000000011</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75266666666666671</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.7533333333333333</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75400000000000011</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75466666666666671</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.7553333333333333</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75600000000000012</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75666666666666671</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.7573333333333333</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75800000000000012</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75866666666666671</v>
       </c>
       <c r="AQ28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.7593333333333333</v>
       </c>
       <c r="AR28">
@@ -10228,25 +12407,25 @@
         <v>0.76</v>
       </c>
       <c r="AT28">
-        <f t="shared" ref="AT28:AU28" si="24">AS28</f>
+        <f t="shared" ref="AT28:AU28" si="27">AS28</f>
         <v>0.76</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:47">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
       <c r="B29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C29">
-        <f>B29/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="L29" t="s">
@@ -10273,47 +12452,47 @@
         <v>0.36</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:AB29" si="25">Q29</f>
+        <f t="shared" ref="R29:AB29" si="28">Q29</f>
         <v>0.36</v>
       </c>
       <c r="S29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="T29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="U29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="V29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="W29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="X29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
       <c r="AC29">
@@ -10325,55 +12504,55 @@
         <v>0.3620000000000001</v>
       </c>
       <c r="AE29">
-        <f t="shared" ref="AE29:AQ29" si="26">FORECAST(AE16,$R$11:$S$11,$R$2:$S$2)</f>
+        <f t="shared" ref="AE29:AQ29" si="29">FORECAST(AE16,$R$11:$S$11,$R$2:$S$2)</f>
         <v>0.36399999999999988</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.36600000000000055</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.36800000000000033</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.37000000000000011</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.37200000000000077</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.37400000000000055</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.37600000000000033</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.37800000000000011</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.37999999999999989</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.38200000000000056</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.38400000000000034</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.38600000000000012</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.38800000000000079</v>
       </c>
       <c r="AR29">
@@ -10385,82 +12564,82 @@
         <v>0.39</v>
       </c>
       <c r="AT29">
-        <f t="shared" ref="AT29:AU29" si="27">AS29</f>
+        <f t="shared" ref="AT29:AU29" si="30">AS29</f>
         <v>0.39</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:47">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="3"/>
         <v>2046</v>
       </c>
       <c r="B30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C30">
-        <f>B30/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:47">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="3"/>
         <v>2047</v>
       </c>
       <c r="B31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C31">
-        <f>B31/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:47">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
       <c r="B32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C32">
-        <f>B32/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="A33">
-        <f>A32+1</f>
+        <f t="shared" si="3"/>
         <v>2049</v>
       </c>
       <c r="B33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C33">
-        <f>B33/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="A34">
-        <f>A33+1</f>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
       <c r="B34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="C34">
-        <f>B34/100</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
     </row>
@@ -10476,7 +12655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -10486,13 +12665,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
-    <col min="2" max="4" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="2" max="4" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="29">
       <c r="A1" s="31" t="s">
         <v>137</v>
       </c>
@@ -10602,7 +12781,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -10747,7 +12926,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -10892,7 +13071,7 @@
         <v>0.23309999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -11037,7 +13216,7 @@
         <v>0.64599999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -11182,7 +13361,7 @@
         <v>0.39750000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -11327,7 +13506,7 @@
         <v>0.22488733656847892</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -11472,7 +13651,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -11617,7 +13796,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -11762,7 +13941,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -11907,7 +14086,7 @@
         <v>0.22689835106537268</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -12052,7 +14231,7 @@
         <v>0.14120000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -12197,7 +14376,7 @@
         <v>0.11790000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -12342,7 +14521,7 @@
         <v>0.56950000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -12487,7 +14666,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -12632,7 +14811,7 @@
         <v>0.14120000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -12777,7 +14956,7 @@
         <v>0.14120000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -12928,7 +15107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -12938,13 +15117,13 @@
       <selection activeCell="A15" sqref="A15:AJ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="29">
       <c r="A1" s="31" t="s">
         <v>137</v>
       </c>
@@ -13054,7 +15233,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -13198,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -13342,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -13486,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -13630,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -13774,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -13918,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -14062,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -14206,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -14350,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -14494,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -14638,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -14782,7 +16961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -14926,7 +17105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -15070,7 +17249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -15214,7 +17393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -15364,7 +17543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -15374,13 +17553,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.73046875" customWidth="1"/>
-    <col min="2" max="4" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="4" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" ht="29">
       <c r="A1" s="31" t="s">
         <v>137</v>
       </c>
@@ -15490,7 +17669,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -15637,7 +17816,7 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -15784,7 +17963,7 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -15931,7 +18110,7 @@
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -16078,7 +18257,7 @@
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -16225,7 +18404,7 @@
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -16372,7 +18551,7 @@
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -16519,7 +18698,7 @@
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -16666,7 +18845,7 @@
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -16813,7 +18992,7 @@
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -16960,7 +19139,7 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -17107,7 +19286,7 @@
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -17254,7 +19433,7 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -17401,7 +19580,7 @@
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -17546,7 +19725,7 @@
         <v>0.14120000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -17691,7 +19870,7 @@
         <v>0.14120000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>140</v>
       </c>
